--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_21_37.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_21_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1477963.945153882</v>
+        <v>1473952.142421785</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6432656.960140347</v>
+        <v>6432656.960140346</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4412938.302784766</v>
+        <v>4412938.302784765</v>
       </c>
     </row>
     <row r="11">
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>244.297475954986</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1384,10 +1384,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>398.3085625684984</v>
       </c>
       <c r="H11" t="n">
-        <v>274.5392124624013</v>
+        <v>214.4761632390908</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>58.04236988161366</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>255.612391572116</v>
       </c>
       <c r="V11" t="n">
         <v>353.914520725013</v>
@@ -1435,7 +1435,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>401.2838973446586</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>60.76258397304347</v>
+        <v>60.76258397304346</v>
       </c>
       <c r="T12" t="n">
         <v>136.1757056744559</v>
@@ -1530,25 +1530,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
-        <v>170.2528374898731</v>
+        <v>143.2648099042401</v>
       </c>
       <c r="D13" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>96.76865037260259</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>134.4334047779237</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>71.96559361603954</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>6.489944470648574</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>237.097464026797</v>
       </c>
       <c r="U13" t="n">
         <v>277.3339849899809</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1618,13 +1618,13 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>398.3085625684984</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>274.5392124624013</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,22 +1657,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>58.04236988161366</v>
       </c>
       <c r="T14" t="n">
-        <v>210.0177446442483</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>255.612391572116</v>
       </c>
       <c r="V14" t="n">
-        <v>95.65479568703839</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>179.3590478967825</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1736,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>60.76258397304347</v>
+        <v>60.76258397304346</v>
       </c>
       <c r="T15" t="n">
         <v>136.1757056744559</v>
@@ -1770,22 +1770,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>90.83700288421788</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>163.7030512222169</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>71.96559361603954</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1818,13 +1818,13 @@
         <v>152.8999186087154</v>
       </c>
       <c r="T16" t="n">
-        <v>36.44926193652329</v>
+        <v>237.097464026797</v>
       </c>
       <c r="U16" t="n">
-        <v>277.3339849899809</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>272.1038797892121</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>148.9480155889727</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>422.6317226868329</v>
@@ -1858,7 +1858,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>398.3085625684984</v>
       </c>
       <c r="H17" t="n">
         <v>274.5392124624013</v>
@@ -1894,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>58.04236988161366</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>210.0177446442482</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>255.612391572116</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>35.85364311108604</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>60.76258397304347</v>
+        <v>60.76258397304346</v>
       </c>
       <c r="T18" t="n">
         <v>136.1757056744559</v>
@@ -2010,16 +2010,16 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>163.7030512222169</v>
+        <v>9.267814325144167</v>
       </c>
       <c r="H19" t="n">
-        <v>84.34705841356836</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,19 +2049,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>6.489944470648581</v>
+        <v>6.489944470648574</v>
       </c>
       <c r="S19" t="n">
-        <v>152.8999186087154</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>237.097464026797</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>277.3339849899809</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
         <v>272.1038797892121</v>
@@ -2083,10 +2083,10 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C20" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>88.15788392586937</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -2095,10 +2095,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>398.3085625684984</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>274.5392124624013</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>29.20798428221354</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>210.0177446442483</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -2149,7 +2149,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2210,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>60.76258397304348</v>
+        <v>60.76258397304347</v>
       </c>
       <c r="T21" t="n">
         <v>136.1757056744559</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
         <v>170.2528374898731</v>
@@ -2253,13 +2253,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>163.7030512222169</v>
+        <v>9.267814325144167</v>
       </c>
       <c r="H22" t="n">
-        <v>134.4334047779237</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>71.96559361603956</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>6.489944470648595</v>
+        <v>6.489944470648581</v>
       </c>
       <c r="S22" t="n">
-        <v>152.8999186087154</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>237.097464026797</v>
@@ -2298,7 +2298,7 @@
         <v>277.3339849899809</v>
       </c>
       <c r="V22" t="n">
-        <v>177.5038484703996</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
         <v>272.1038797892121</v>
@@ -2307,7 +2307,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="23">
@@ -2323,10 +2323,10 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E23" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>420.8729399924937</v>
@@ -2368,22 +2368,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>58.04236988161369</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>210.0177446442483</v>
       </c>
       <c r="U23" t="n">
-        <v>124.8688533127397</v>
+        <v>255.612391572116</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W23" t="n">
-        <v>392.4274362026566</v>
+        <v>166.0542771463338</v>
       </c>
       <c r="X23" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2447,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>60.76258397304348</v>
+        <v>60.76258397304347</v>
       </c>
       <c r="T24" t="n">
         <v>136.1757056744559</v>
@@ -2496,7 +2496,7 @@
         <v>134.4334047779237</v>
       </c>
       <c r="I25" t="n">
-        <v>71.96559361603956</v>
+        <v>71.96559361603954</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>6.489944470648595</v>
+        <v>6.489944470648581</v>
       </c>
       <c r="S25" t="n">
         <v>152.8999186087154</v>
@@ -2566,13 +2566,13 @@
         <v>421.717170453621</v>
       </c>
       <c r="F26" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>398.3085625684984</v>
+        <v>81.02600019905132</v>
       </c>
       <c r="H26" t="n">
-        <v>274.5392124624013</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2614,16 +2614,16 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y26" t="n">
-        <v>141.2500409472577</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>60.76258397304348</v>
+        <v>60.76258397304347</v>
       </c>
       <c r="T27" t="n">
         <v>136.1757056744559</v>
@@ -2733,7 +2733,7 @@
         <v>134.4334047779237</v>
       </c>
       <c r="I28" t="n">
-        <v>71.96559361603956</v>
+        <v>71.96559361603954</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>6.489944470648595</v>
+        <v>6.489944470648581</v>
       </c>
       <c r="S28" t="n">
-        <v>152.8999186087152</v>
+        <v>152.8999186087154</v>
       </c>
       <c r="T28" t="n">
         <v>237.097464026797</v>
       </c>
       <c r="U28" t="n">
-        <v>277.3339849899809</v>
+        <v>277.333984989981</v>
       </c>
       <c r="V28" t="n">
         <v>278.8943527180514</v>
@@ -2791,16 +2791,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C29" t="n">
-        <v>368.2300022937982</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>420.8729399924937</v>
@@ -2809,7 +2809,7 @@
         <v>398.3085625684984</v>
       </c>
       <c r="H29" t="n">
-        <v>274.5392124624013</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,22 +2842,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>58.04236988161367</v>
       </c>
       <c r="T29" t="n">
         <v>210.0177446442483</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>255.612391572116</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>7.899480786656278</v>
       </c>
       <c r="Y29" t="n">
         <v>401.2838973446586</v>
@@ -2921,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>60.76258397304348</v>
+        <v>60.76258397304347</v>
       </c>
       <c r="T30" t="n">
         <v>136.1757056744559</v>
@@ -2970,7 +2970,7 @@
         <v>134.4334047779237</v>
       </c>
       <c r="I31" t="n">
-        <v>71.96559361603956</v>
+        <v>71.96559361603954</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>6.489944470648595</v>
+        <v>6.48994447064862</v>
       </c>
       <c r="S31" t="n">
         <v>152.8999186087154</v>
@@ -3006,7 +3006,7 @@
         <v>237.097464026797</v>
       </c>
       <c r="U31" t="n">
-        <v>277.3339849899806</v>
+        <v>277.3339849899809</v>
       </c>
       <c r="V31" t="n">
         <v>278.8943527180514</v>
@@ -3028,25 +3028,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>398.3085625684984</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>274.5392124624013</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>58.04236988161367</v>
       </c>
       <c r="T32" t="n">
         <v>210.0177446442483</v>
@@ -3091,13 +3091,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X32" t="n">
-        <v>407.6027988439302</v>
+        <v>128.5768758639071</v>
       </c>
       <c r="Y32" t="n">
-        <v>7.8233001853434</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3158,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>60.76258397304348</v>
+        <v>60.76258397304347</v>
       </c>
       <c r="T33" t="n">
         <v>136.1757056744559</v>
@@ -3207,7 +3207,7 @@
         <v>134.4334047779237</v>
       </c>
       <c r="I34" t="n">
-        <v>71.96559361603956</v>
+        <v>71.96559361603954</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>6.489944470648595</v>
+        <v>6.489944470648581</v>
       </c>
       <c r="S34" t="n">
         <v>152.8999186087154</v>
@@ -3268,7 +3268,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -3277,13 +3277,13 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>398.3085625684984</v>
       </c>
       <c r="H35" t="n">
-        <v>274.5392124624013</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>58.04236988161367</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>255.612391572116</v>
       </c>
       <c r="V35" t="n">
-        <v>150.1101049794885</v>
+        <v>160.7878851201732</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X35" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="36">
@@ -3395,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>60.76258397304348</v>
+        <v>60.76258397304347</v>
       </c>
       <c r="T36" t="n">
         <v>136.1757056744559</v>
@@ -3432,16 +3432,16 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>163.7030512222169</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>134.4334047779237</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,22 +3471,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>6.489944470648581</v>
       </c>
       <c r="S37" t="n">
-        <v>15.75775879579215</v>
+        <v>152.8999186087154</v>
       </c>
       <c r="T37" t="n">
         <v>237.097464026797</v>
       </c>
       <c r="U37" t="n">
-        <v>277.3339849899809</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>272.1038797892121</v>
+        <v>222.0175334248582</v>
       </c>
       <c r="X37" t="n">
         <v>240.1382575886529</v>
@@ -3505,22 +3505,22 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D38" t="n">
-        <v>419.0596946068497</v>
+        <v>410.5349458321995</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>398.3085625684984</v>
       </c>
       <c r="H38" t="n">
-        <v>274.5392124624013</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3559,19 +3559,19 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>232.8405801920661</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3632,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>60.76258397304348</v>
+        <v>60.76258397304347</v>
       </c>
       <c r="T39" t="n">
         <v>136.1757056744559</v>
@@ -3669,10 +3669,10 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>105.5523369083839</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3714,13 +3714,13 @@
         <v>152.8999186087154</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>237.097464026797</v>
       </c>
       <c r="U40" t="n">
         <v>277.3339849899809</v>
       </c>
       <c r="V40" t="n">
-        <v>278.8943527180514</v>
+        <v>141.7521929051286</v>
       </c>
       <c r="W40" t="n">
         <v>272.1038797892121</v>
@@ -3739,25 +3739,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
-        <v>422.6317226868329</v>
+        <v>396.7656558320663</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
-        <v>366.8464266935755</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>274.5392124624013</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3793,7 +3793,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>210.0177446442483</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -3802,10 +3802,10 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3906,10 +3906,10 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>164.546123788675</v>
+        <v>99.95530421387419</v>
       </c>
       <c r="F43" t="n">
-        <v>139.2989134009187</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>6.489944470648595</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>152.8999186087154</v>
       </c>
       <c r="T43" t="n">
-        <v>237.097464026797</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>277.3339849899809</v>
       </c>
       <c r="V43" t="n">
         <v>278.8943527180514</v>
@@ -3979,19 +3979,19 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>221.4272513966953</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4027,16 +4027,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>58.04236988161368</v>
       </c>
       <c r="T44" t="n">
         <v>210.0177446442483</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>229.4287485493508</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
         <v>392.4274362026566</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>188.264309024945</v>
+        <v>171.9104834023663</v>
       </c>
       <c r="C46" t="n">
         <v>170.2528374898731</v>
@@ -4143,13 +4143,13 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>163.7030512222169</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>15.75775879579215</v>
+        <v>152.8999186087154</v>
       </c>
       <c r="T46" t="n">
         <v>237.097464026797</v>
@@ -4194,7 +4194,7 @@
         <v>277.3339849899809</v>
       </c>
       <c r="V46" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>272.1038797892121</v>
@@ -5017,28 +5017,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>320.0677541164978</v>
+        <v>661.7298888086069</v>
       </c>
       <c r="C11" t="n">
-        <v>320.0677541164978</v>
+        <v>661.7298888086069</v>
       </c>
       <c r="D11" t="n">
-        <v>320.0677541164978</v>
+        <v>661.7298888086069</v>
       </c>
       <c r="E11" t="n">
-        <v>320.0677541164978</v>
+        <v>661.7298888086069</v>
       </c>
       <c r="F11" t="n">
-        <v>320.0677541164978</v>
+        <v>661.7298888086069</v>
       </c>
       <c r="G11" t="n">
-        <v>320.0677541164978</v>
+        <v>259.3980074262852</v>
       </c>
       <c r="H11" t="n">
-        <v>42.75541829589045</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="I11" t="n">
-        <v>84.39494262103611</v>
+        <v>84.39494262103617</v>
       </c>
       <c r="J11" t="n">
         <v>222.2360596072045</v>
@@ -5050,43 +5050,43 @@
         <v>709.585180084832</v>
       </c>
       <c r="M11" t="n">
-        <v>1017.958031365649</v>
+        <v>1017.95803136565</v>
       </c>
       <c r="N11" t="n">
-        <v>1332.07042163564</v>
+        <v>1332.070421635641</v>
       </c>
       <c r="O11" t="n">
-        <v>1626.510864636163</v>
+        <v>1626.510864636165</v>
       </c>
       <c r="P11" t="n">
-        <v>1872.202557977125</v>
+        <v>1872.202557977127</v>
       </c>
       <c r="Q11" t="n">
-        <v>2048.878716272599</v>
+        <v>2048.8787162726</v>
       </c>
       <c r="R11" t="n">
-        <v>2137.770914794522</v>
+        <v>2137.770914794524</v>
       </c>
       <c r="S11" t="n">
-        <v>2137.770914794522</v>
+        <v>2079.14225834845</v>
       </c>
       <c r="T11" t="n">
-        <v>2137.770914794522</v>
+        <v>2079.14225834845</v>
       </c>
       <c r="U11" t="n">
-        <v>2137.770914794522</v>
+        <v>1820.94792342712</v>
       </c>
       <c r="V11" t="n">
-        <v>1780.281499920772</v>
+        <v>1463.45850855337</v>
       </c>
       <c r="W11" t="n">
-        <v>1383.890150221119</v>
+        <v>1067.067158853717</v>
       </c>
       <c r="X11" t="n">
-        <v>972.1701513888661</v>
+        <v>1067.067158853717</v>
       </c>
       <c r="Y11" t="n">
-        <v>566.8328813437564</v>
+        <v>661.7298888086069</v>
       </c>
     </row>
     <row r="12">
@@ -5096,10 +5096,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>598.4330068530408</v>
+        <v>598.4330068530409</v>
       </c>
       <c r="C12" t="n">
-        <v>480.9271033705455</v>
+        <v>480.9271033705456</v>
       </c>
       <c r="D12" t="n">
         <v>377.0871448858306</v>
@@ -5111,34 +5111,34 @@
         <v>178.739380841672</v>
       </c>
       <c r="G12" t="n">
-        <v>85.75954558772926</v>
+        <v>85.75954558772929</v>
       </c>
       <c r="H12" t="n">
-        <v>42.75541829589045</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="I12" t="n">
-        <v>86.44169614186396</v>
+        <v>86.44169614186399</v>
       </c>
       <c r="J12" t="n">
-        <v>165.481020982128</v>
+        <v>299.0104088577484</v>
       </c>
       <c r="K12" t="n">
-        <v>313.2719753503762</v>
+        <v>446.8013632259966</v>
       </c>
       <c r="L12" t="n">
-        <v>519.5225649727759</v>
+        <v>653.0519528483964</v>
       </c>
       <c r="M12" t="n">
-        <v>763.3527659282772</v>
+        <v>896.8821538038977</v>
       </c>
       <c r="N12" t="n">
-        <v>1015.977831562473</v>
+        <v>1149.507219438093</v>
       </c>
       <c r="O12" t="n">
-        <v>1243.469695585332</v>
+        <v>1376.999083460952</v>
       </c>
       <c r="P12" t="n">
-        <v>1422.910349236153</v>
+        <v>1556.439737111774</v>
       </c>
       <c r="Q12" t="n">
         <v>1668.279192602594</v>
@@ -5162,10 +5162,10 @@
         <v>1030.530251153148</v>
       </c>
       <c r="X12" t="n">
-        <v>867.0529049198111</v>
+        <v>867.0529049198112</v>
       </c>
       <c r="Y12" t="n">
-        <v>727.3600162731035</v>
+        <v>727.3600162731036</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>641.9990716248276</v>
+        <v>395.9511842536717</v>
       </c>
       <c r="C13" t="n">
-        <v>470.0265085037436</v>
+        <v>251.2392550574696</v>
       </c>
       <c r="D13" t="n">
-        <v>306.7097356305143</v>
+        <v>251.2392550574696</v>
       </c>
       <c r="E13" t="n">
-        <v>140.5015297833678</v>
+        <v>251.2392550574696</v>
       </c>
       <c r="F13" t="n">
-        <v>42.75541829589045</v>
+        <v>251.2392550574696</v>
       </c>
       <c r="G13" t="n">
-        <v>42.75541829589045</v>
+        <v>251.2392550574696</v>
       </c>
       <c r="H13" t="n">
-        <v>42.75541829589045</v>
+        <v>115.4479370999708</v>
       </c>
       <c r="I13" t="n">
-        <v>42.75541829589045</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="J13" t="n">
-        <v>84.71320548484805</v>
+        <v>84.71320548484809</v>
       </c>
       <c r="K13" t="n">
-        <v>166.4811349991141</v>
+        <v>166.4811349991142</v>
       </c>
       <c r="L13" t="n">
-        <v>275.9756251911621</v>
+        <v>652.3645187823271</v>
       </c>
       <c r="M13" t="n">
-        <v>698.2420836039697</v>
+        <v>1181.462820193972</v>
       </c>
       <c r="N13" t="n">
-        <v>1210.77026158737</v>
+        <v>1693.990998177372</v>
       </c>
       <c r="O13" t="n">
-        <v>1690.926608658703</v>
+        <v>2003.682813232012</v>
       </c>
       <c r="P13" t="n">
-        <v>2088.252358880157</v>
+        <v>2088.252358880159</v>
       </c>
       <c r="Q13" t="n">
-        <v>2137.770914794522</v>
+        <v>2137.770914794524</v>
       </c>
       <c r="R13" t="n">
-        <v>2137.770914794522</v>
+        <v>2131.215415329222</v>
       </c>
       <c r="S13" t="n">
-        <v>2137.770914794522</v>
+        <v>2131.215415329222</v>
       </c>
       <c r="T13" t="n">
-        <v>2137.770914794522</v>
+        <v>1891.723027423367</v>
       </c>
       <c r="U13" t="n">
-        <v>1857.635576420804</v>
+        <v>1611.587689049648</v>
       </c>
       <c r="V13" t="n">
-        <v>1575.924109028833</v>
+        <v>1329.876221657677</v>
       </c>
       <c r="W13" t="n">
-        <v>1301.071705201346</v>
+        <v>1055.02381783019</v>
       </c>
       <c r="X13" t="n">
-        <v>1058.507808647151</v>
+        <v>812.4599212759953</v>
       </c>
       <c r="Y13" t="n">
-        <v>832.1650403368933</v>
+        <v>586.1171529657373</v>
       </c>
     </row>
     <row r="14">
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1570.816438124419</v>
+        <v>466.0480391108902</v>
       </c>
       <c r="C14" t="n">
-        <v>1570.816438124419</v>
+        <v>466.0480391108902</v>
       </c>
       <c r="D14" t="n">
-        <v>1147.523817309419</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="E14" t="n">
-        <v>1147.523817309419</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="F14" t="n">
-        <v>722.3996354988195</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="G14" t="n">
-        <v>320.0677541164978</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="H14" t="n">
         <v>42.75541829589046</v>
@@ -5278,13 +5278,13 @@
         <v>84.39494262103608</v>
       </c>
       <c r="J14" t="n">
-        <v>222.2360596072042</v>
+        <v>222.236059607204</v>
       </c>
       <c r="K14" t="n">
-        <v>437.0691715610001</v>
+        <v>437.0691715609997</v>
       </c>
       <c r="L14" t="n">
-        <v>709.5851800848318</v>
+        <v>709.5851800848316</v>
       </c>
       <c r="M14" t="n">
         <v>1017.958031365649</v>
@@ -5305,25 +5305,25 @@
         <v>2137.770914794523</v>
       </c>
       <c r="S14" t="n">
-        <v>2137.770914794523</v>
+        <v>2079.142258348449</v>
       </c>
       <c r="T14" t="n">
-        <v>1925.631778790232</v>
+        <v>2079.142258348449</v>
       </c>
       <c r="U14" t="n">
-        <v>1667.437443868902</v>
+        <v>1820.947923427119</v>
       </c>
       <c r="V14" t="n">
-        <v>1570.816438124419</v>
+        <v>1463.458508553369</v>
       </c>
       <c r="W14" t="n">
-        <v>1570.816438124419</v>
+        <v>1067.067158853716</v>
       </c>
       <c r="X14" t="n">
-        <v>1570.816438124419</v>
+        <v>885.8964034024202</v>
       </c>
       <c r="Y14" t="n">
-        <v>1570.816438124419</v>
+        <v>885.8964034024202</v>
       </c>
     </row>
     <row r="15">
@@ -5354,22 +5354,22 @@
         <v>42.75541829589046</v>
       </c>
       <c r="I15" t="n">
-        <v>62.98439029745212</v>
+        <v>62.98439029745214</v>
       </c>
       <c r="J15" t="n">
-        <v>142.0237151377161</v>
+        <v>142.0237151377162</v>
       </c>
       <c r="K15" t="n">
-        <v>289.8146695059643</v>
+        <v>289.8146695059644</v>
       </c>
       <c r="L15" t="n">
-        <v>496.065259128364</v>
+        <v>496.0652591283642</v>
       </c>
       <c r="M15" t="n">
-        <v>739.8954600838654</v>
+        <v>739.8954600838656</v>
       </c>
       <c r="N15" t="n">
-        <v>992.5205257180608</v>
+        <v>992.5205257180611</v>
       </c>
       <c r="O15" t="n">
         <v>1220.01238974092</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>450.7372730942841</v>
+        <v>809.9091272536361</v>
       </c>
       <c r="C16" t="n">
-        <v>278.7647099732001</v>
+        <v>637.9365641325521</v>
       </c>
       <c r="D16" t="n">
-        <v>115.4479370999708</v>
+        <v>546.1820157646553</v>
       </c>
       <c r="E16" t="n">
-        <v>115.4479370999708</v>
+        <v>379.9738099175088</v>
       </c>
       <c r="F16" t="n">
-        <v>115.4479370999708</v>
+        <v>208.1120356920692</v>
       </c>
       <c r="G16" t="n">
-        <v>115.4479370999708</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="H16" t="n">
-        <v>115.4479370999708</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="I16" t="n">
         <v>42.75541829589046</v>
@@ -5442,7 +5442,7 @@
         <v>413.7637441131362</v>
       </c>
       <c r="L16" t="n">
-        <v>523.2582343051841</v>
+        <v>523.2582343051843</v>
       </c>
       <c r="M16" t="n">
         <v>1052.356535716829</v>
@@ -5466,22 +5466,22 @@
         <v>1983.326552563497</v>
       </c>
       <c r="T16" t="n">
-        <v>1946.509116263979</v>
+        <v>1743.834164657642</v>
       </c>
       <c r="U16" t="n">
-        <v>1666.373777890261</v>
+        <v>1743.834164657642</v>
       </c>
       <c r="V16" t="n">
-        <v>1384.66231049829</v>
+        <v>1743.834164657642</v>
       </c>
       <c r="W16" t="n">
-        <v>1109.809906670803</v>
+        <v>1468.981760830155</v>
       </c>
       <c r="X16" t="n">
-        <v>867.2460101166077</v>
+        <v>1226.41786427596</v>
       </c>
       <c r="Y16" t="n">
-        <v>640.9032418063498</v>
+        <v>1000.075095965702</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1170.261104918197</v>
+        <v>1572.592986300519</v>
       </c>
       <c r="C17" t="n">
-        <v>743.3603749314975</v>
+        <v>1145.692256313819</v>
       </c>
       <c r="D17" t="n">
-        <v>320.0677541164978</v>
+        <v>722.3996354988195</v>
       </c>
       <c r="E17" t="n">
-        <v>320.0677541164978</v>
+        <v>722.3996354988195</v>
       </c>
       <c r="F17" t="n">
-        <v>320.0677541164978</v>
+        <v>722.3996354988195</v>
       </c>
       <c r="G17" t="n">
         <v>320.0677541164978</v>
       </c>
       <c r="H17" t="n">
-        <v>42.75541829589044</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="I17" t="n">
         <v>84.39494262103614</v>
@@ -5521,46 +5521,46 @@
         <v>437.0691715610001</v>
       </c>
       <c r="L17" t="n">
-        <v>709.5851800848318</v>
+        <v>709.585180084832</v>
       </c>
       <c r="M17" t="n">
-        <v>1017.958031365648</v>
+        <v>1017.958031365649</v>
       </c>
       <c r="N17" t="n">
         <v>1332.07042163564</v>
       </c>
       <c r="O17" t="n">
-        <v>1626.510864636163</v>
+        <v>1626.510864636164</v>
       </c>
       <c r="P17" t="n">
-        <v>1872.202557977125</v>
+        <v>1872.202557977126</v>
       </c>
       <c r="Q17" t="n">
-        <v>2048.878716272598</v>
+        <v>2048.878716272599</v>
       </c>
       <c r="R17" t="n">
-        <v>2137.770914794522</v>
+        <v>2137.770914794523</v>
       </c>
       <c r="S17" t="n">
-        <v>2137.770914794522</v>
+        <v>2079.142258348449</v>
       </c>
       <c r="T17" t="n">
-        <v>2137.770914794522</v>
+        <v>1867.003122344157</v>
       </c>
       <c r="U17" t="n">
-        <v>2137.770914794522</v>
+        <v>1608.808787422828</v>
       </c>
       <c r="V17" t="n">
-        <v>2137.770914794522</v>
+        <v>1572.592986300519</v>
       </c>
       <c r="W17" t="n">
-        <v>2137.770914794522</v>
+        <v>1572.592986300519</v>
       </c>
       <c r="X17" t="n">
-        <v>1726.050915962269</v>
+        <v>1572.592986300519</v>
       </c>
       <c r="Y17" t="n">
-        <v>1320.71364591716</v>
+        <v>1572.592986300519</v>
       </c>
     </row>
     <row r="18">
@@ -5588,31 +5588,31 @@
         <v>85.75954558772926</v>
       </c>
       <c r="H18" t="n">
-        <v>42.75541829589044</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="I18" t="n">
-        <v>86.44169614186394</v>
+        <v>86.44169614186397</v>
       </c>
       <c r="J18" t="n">
-        <v>165.4810209821279</v>
+        <v>299.0104088577483</v>
       </c>
       <c r="K18" t="n">
-        <v>313.2719753503761</v>
+        <v>446.8013632259966</v>
       </c>
       <c r="L18" t="n">
-        <v>519.5225649727759</v>
+        <v>653.0519528483964</v>
       </c>
       <c r="M18" t="n">
-        <v>763.3527659282772</v>
+        <v>896.8821538038977</v>
       </c>
       <c r="N18" t="n">
-        <v>1015.977831562473</v>
+        <v>1149.507219438093</v>
       </c>
       <c r="O18" t="n">
-        <v>1243.469695585331</v>
+        <v>1376.999083460952</v>
       </c>
       <c r="P18" t="n">
-        <v>1422.910349236153</v>
+        <v>1556.439737111774</v>
       </c>
       <c r="Q18" t="n">
         <v>1668.279192602594</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>803.3536277883336</v>
+        <v>395.9511842536708</v>
       </c>
       <c r="C19" t="n">
-        <v>631.3810646672496</v>
+        <v>223.9786211325868</v>
       </c>
       <c r="D19" t="n">
-        <v>631.3810646672496</v>
+        <v>223.9786211325868</v>
       </c>
       <c r="E19" t="n">
-        <v>465.1728588201031</v>
+        <v>223.9786211325868</v>
       </c>
       <c r="F19" t="n">
-        <v>293.3110845946635</v>
+        <v>52.11684690714719</v>
       </c>
       <c r="G19" t="n">
-        <v>127.9544671984848</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="H19" t="n">
-        <v>42.75541829589044</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="I19" t="n">
-        <v>42.75541829589044</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="J19" t="n">
-        <v>162.6349221330689</v>
+        <v>84.71320548484806</v>
       </c>
       <c r="K19" t="n">
-        <v>491.685460761357</v>
+        <v>166.4811349991141</v>
       </c>
       <c r="L19" t="n">
-        <v>601.179950953405</v>
+        <v>652.3645187823271</v>
       </c>
       <c r="M19" t="n">
-        <v>1130.278252365049</v>
+        <v>768.3405774192805</v>
       </c>
       <c r="N19" t="n">
-        <v>1588.472585890573</v>
+        <v>1280.868755402681</v>
       </c>
       <c r="O19" t="n">
-        <v>1690.926608658703</v>
+        <v>1761.025102474014</v>
       </c>
       <c r="P19" t="n">
-        <v>2088.252358880157</v>
+        <v>2088.252358880158</v>
       </c>
       <c r="Q19" t="n">
-        <v>2137.770914794522</v>
+        <v>2137.770914794523</v>
       </c>
       <c r="R19" t="n">
-        <v>2131.21541532922</v>
+        <v>2131.215415329221</v>
       </c>
       <c r="S19" t="n">
-        <v>1976.771053098195</v>
+        <v>2131.215415329221</v>
       </c>
       <c r="T19" t="n">
-        <v>1737.278665192339</v>
+        <v>1891.723027423366</v>
       </c>
       <c r="U19" t="n">
-        <v>1737.278665192339</v>
+        <v>1611.587689049647</v>
       </c>
       <c r="V19" t="n">
-        <v>1737.278665192339</v>
+        <v>1329.876221657676</v>
       </c>
       <c r="W19" t="n">
-        <v>1462.426261364852</v>
+        <v>1055.023817830189</v>
       </c>
       <c r="X19" t="n">
-        <v>1219.862364810657</v>
+        <v>812.4599212759944</v>
       </c>
       <c r="Y19" t="n">
-        <v>993.5195965003993</v>
+        <v>586.1171529657364</v>
       </c>
     </row>
     <row r="20">
@@ -5728,37 +5728,37 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>558.7045158844786</v>
+        <v>722.3996354988195</v>
       </c>
       <c r="C20" t="n">
-        <v>131.8037858977787</v>
+        <v>722.3996354988195</v>
       </c>
       <c r="D20" t="n">
-        <v>42.75541829589044</v>
+        <v>722.3996354988195</v>
       </c>
       <c r="E20" t="n">
-        <v>42.75541829589044</v>
+        <v>722.3996354988195</v>
       </c>
       <c r="F20" t="n">
-        <v>42.75541829589044</v>
+        <v>722.3996354988195</v>
       </c>
       <c r="G20" t="n">
-        <v>42.75541829589044</v>
+        <v>320.0677541164978</v>
       </c>
       <c r="H20" t="n">
-        <v>42.75541829589044</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="I20" t="n">
-        <v>84.39494262103608</v>
+        <v>84.39494262103619</v>
       </c>
       <c r="J20" t="n">
-        <v>222.2360596072044</v>
+        <v>222.2360596072045</v>
       </c>
       <c r="K20" t="n">
-        <v>437.069171561</v>
+        <v>437.0691715610003</v>
       </c>
       <c r="L20" t="n">
-        <v>709.5851800848316</v>
+        <v>709.585180084832</v>
       </c>
       <c r="M20" t="n">
         <v>1017.958031365649</v>
@@ -5767,37 +5767,37 @@
         <v>1332.07042163564</v>
       </c>
       <c r="O20" t="n">
-        <v>1626.510864636163</v>
+        <v>1626.510864636164</v>
       </c>
       <c r="P20" t="n">
-        <v>1872.202557977125</v>
+        <v>1872.202557977126</v>
       </c>
       <c r="Q20" t="n">
-        <v>2048.878716272598</v>
+        <v>2048.878716272599</v>
       </c>
       <c r="R20" t="n">
-        <v>2137.770914794522</v>
+        <v>2137.770914794523</v>
       </c>
       <c r="S20" t="n">
-        <v>2137.770914794522</v>
+        <v>2108.267900368045</v>
       </c>
       <c r="T20" t="n">
-        <v>2137.770914794522</v>
+        <v>1896.128764363753</v>
       </c>
       <c r="U20" t="n">
-        <v>2137.770914794522</v>
+        <v>1896.128764363753</v>
       </c>
       <c r="V20" t="n">
-        <v>1780.281499920771</v>
+        <v>1538.639349490003</v>
       </c>
       <c r="W20" t="n">
-        <v>1383.890150221118</v>
+        <v>1142.24799979035</v>
       </c>
       <c r="X20" t="n">
-        <v>1383.890150221118</v>
+        <v>1142.24799979035</v>
       </c>
       <c r="Y20" t="n">
-        <v>978.5528801760087</v>
+        <v>1142.24799979035</v>
       </c>
     </row>
     <row r="21">
@@ -5825,34 +5825,34 @@
         <v>85.75954558772926</v>
       </c>
       <c r="H21" t="n">
-        <v>42.75541829589044</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="I21" t="n">
-        <v>62.98439029745209</v>
+        <v>86.44169614186397</v>
       </c>
       <c r="J21" t="n">
-        <v>142.0237151377161</v>
+        <v>299.0104088577485</v>
       </c>
       <c r="K21" t="n">
-        <v>289.8146695059642</v>
+        <v>446.8013632259967</v>
       </c>
       <c r="L21" t="n">
-        <v>496.0652591283638</v>
+        <v>653.0519528483965</v>
       </c>
       <c r="M21" t="n">
-        <v>739.8954600838649</v>
+        <v>896.8821538038978</v>
       </c>
       <c r="N21" t="n">
-        <v>992.5205257180602</v>
+        <v>1149.507219438093</v>
       </c>
       <c r="O21" t="n">
-        <v>1220.012389740919</v>
+        <v>1376.999083460952</v>
       </c>
       <c r="P21" t="n">
-        <v>1399.453043391741</v>
+        <v>1556.439737111774</v>
       </c>
       <c r="Q21" t="n">
-        <v>1773.7346928875</v>
+        <v>1668.279192602594</v>
       </c>
       <c r="R21" t="n">
         <v>1815.649874842555</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>760.4302098001718</v>
+        <v>395.9511842536708</v>
       </c>
       <c r="C22" t="n">
-        <v>588.4576466790878</v>
+        <v>223.9786211325868</v>
       </c>
       <c r="D22" t="n">
-        <v>588.4576466790878</v>
+        <v>223.9786211325868</v>
       </c>
       <c r="E22" t="n">
-        <v>588.4576466790878</v>
+        <v>223.9786211325868</v>
       </c>
       <c r="F22" t="n">
-        <v>416.5958724536483</v>
+        <v>52.11684690714719</v>
       </c>
       <c r="G22" t="n">
-        <v>251.2392550574695</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="H22" t="n">
-        <v>115.4479370999708</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="I22" t="n">
-        <v>42.75541829589044</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="J22" t="n">
-        <v>162.6349221330689</v>
+        <v>84.71320548484806</v>
       </c>
       <c r="K22" t="n">
-        <v>244.4028516473349</v>
+        <v>166.4811349991141</v>
       </c>
       <c r="L22" t="n">
-        <v>415.8032076563065</v>
+        <v>582.2660249670167</v>
       </c>
       <c r="M22" t="n">
-        <v>944.9015090679508</v>
+        <v>698.2420836039702</v>
       </c>
       <c r="N22" t="n">
-        <v>1059.396764209471</v>
+        <v>1210.77026158737</v>
       </c>
       <c r="O22" t="n">
-        <v>1539.553111280804</v>
+        <v>1690.926608658704</v>
       </c>
       <c r="P22" t="n">
-        <v>1936.878861502258</v>
+        <v>2088.252358880158</v>
       </c>
       <c r="Q22" t="n">
-        <v>2137.770914794522</v>
+        <v>2137.770914794523</v>
       </c>
       <c r="R22" t="n">
-        <v>2131.21541532922</v>
+        <v>2131.215415329221</v>
       </c>
       <c r="S22" t="n">
-        <v>1976.771053098195</v>
+        <v>2131.215415329221</v>
       </c>
       <c r="T22" t="n">
-        <v>1737.278665192339</v>
+        <v>1891.723027423366</v>
       </c>
       <c r="U22" t="n">
-        <v>1457.143326818621</v>
+        <v>1611.587689049647</v>
       </c>
       <c r="V22" t="n">
-        <v>1277.846510181854</v>
+        <v>1329.876221657676</v>
       </c>
       <c r="W22" t="n">
-        <v>1002.994106354367</v>
+        <v>1055.023817830189</v>
       </c>
       <c r="X22" t="n">
-        <v>760.4302098001718</v>
+        <v>812.4599212759944</v>
       </c>
       <c r="Y22" t="n">
-        <v>760.4302098001718</v>
+        <v>586.1171529657364</v>
       </c>
     </row>
     <row r="23">
@@ -5965,13 +5965,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1590.816029947233</v>
+        <v>1588.131710910091</v>
       </c>
       <c r="C23" t="n">
-        <v>1590.816029947233</v>
+        <v>1588.131710910091</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.816029947233</v>
+        <v>1164.839090095091</v>
       </c>
       <c r="E23" t="n">
         <v>1164.839090095091</v>
@@ -5980,7 +5980,7 @@
         <v>739.714908284491</v>
       </c>
       <c r="G23" t="n">
-        <v>337.3830269021694</v>
+        <v>337.3830269021693</v>
       </c>
       <c r="H23" t="n">
         <v>60.07069108156194</v>
@@ -5989,25 +5989,25 @@
         <v>101.7102154067076</v>
       </c>
       <c r="J23" t="n">
-        <v>239.5513323928758</v>
+        <v>631.2805511005022</v>
       </c>
       <c r="K23" t="n">
-        <v>454.3844443466714</v>
+        <v>846.1136630542979</v>
       </c>
       <c r="L23" t="n">
-        <v>726.900452870503</v>
+        <v>1118.62967157813</v>
       </c>
       <c r="M23" t="n">
-        <v>1035.27330415132</v>
+        <v>1427.002522858947</v>
       </c>
       <c r="N23" t="n">
-        <v>1349.385694421311</v>
+        <v>1741.114913128938</v>
       </c>
       <c r="O23" t="n">
-        <v>1643.826137421834</v>
+        <v>2035.555356129462</v>
       </c>
       <c r="P23" t="n">
-        <v>2093.878631620214</v>
+        <v>2281.247049470424</v>
       </c>
       <c r="Q23" t="n">
         <v>2762.403697278422</v>
@@ -6016,25 +6016,25 @@
         <v>3003.534554078097</v>
       </c>
       <c r="S23" t="n">
-        <v>2944.905897632023</v>
+        <v>3003.534554078097</v>
       </c>
       <c r="T23" t="n">
-        <v>2944.905897632023</v>
+        <v>2791.395418073806</v>
       </c>
       <c r="U23" t="n">
-        <v>2818.775742770669</v>
+        <v>2533.201083152476</v>
       </c>
       <c r="V23" t="n">
-        <v>2818.775742770669</v>
+        <v>2175.711668278725</v>
       </c>
       <c r="W23" t="n">
-        <v>2422.384393071016</v>
+        <v>2007.980075201621</v>
       </c>
       <c r="X23" t="n">
-        <v>2010.664394238763</v>
+        <v>2007.980075201621</v>
       </c>
       <c r="Y23" t="n">
-        <v>2010.664394238763</v>
+        <v>2007.980075201621</v>
       </c>
     </row>
     <row r="24">
@@ -6059,37 +6059,37 @@
         <v>196.0546536273434</v>
       </c>
       <c r="G24" t="n">
-        <v>103.0748183734008</v>
+        <v>103.0748183734007</v>
       </c>
       <c r="H24" t="n">
         <v>60.07069108156194</v>
       </c>
       <c r="I24" t="n">
-        <v>80.29966308312359</v>
+        <v>103.7569689275355</v>
       </c>
       <c r="J24" t="n">
-        <v>159.3389879233875</v>
+        <v>316.3256816434199</v>
       </c>
       <c r="K24" t="n">
-        <v>307.1299422916356</v>
+        <v>464.1166360116681</v>
       </c>
       <c r="L24" t="n">
-        <v>513.3805319140353</v>
+        <v>670.3672256340678</v>
       </c>
       <c r="M24" t="n">
-        <v>757.2107328695365</v>
+        <v>914.1974265895692</v>
       </c>
       <c r="N24" t="n">
-        <v>1009.835798503732</v>
+        <v>1166.822492223765</v>
       </c>
       <c r="O24" t="n">
-        <v>1499.76985653153</v>
+        <v>1394.314356246624</v>
       </c>
       <c r="P24" t="n">
-        <v>1679.210510182352</v>
+        <v>1573.755009897445</v>
       </c>
       <c r="Q24" t="n">
-        <v>1791.049965673171</v>
+        <v>1685.594465388265</v>
       </c>
       <c r="R24" t="n">
         <v>1832.965147628227</v>
@@ -6150,19 +6150,19 @@
         <v>179.9501949187404</v>
       </c>
       <c r="K25" t="n">
-        <v>509.0007335470285</v>
+        <v>397.2373026266571</v>
       </c>
       <c r="L25" t="n">
-        <v>994.8841173302413</v>
+        <v>883.12068640987</v>
       </c>
       <c r="M25" t="n">
-        <v>1524.395656430017</v>
+        <v>1412.632225509645</v>
       </c>
       <c r="N25" t="n">
-        <v>2036.923834413417</v>
+        <v>1925.160403493045</v>
       </c>
       <c r="O25" t="n">
-        <v>2517.08018148475</v>
+        <v>2405.316750564379</v>
       </c>
       <c r="P25" t="n">
         <v>2802.642500785833</v>
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2441.009380748933</v>
+        <v>1418.08542638091</v>
       </c>
       <c r="C26" t="n">
-        <v>2014.108650762233</v>
+        <v>991.1846963942105</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.816029947233</v>
+        <v>567.8920755792108</v>
       </c>
       <c r="E26" t="n">
-        <v>1164.839090095091</v>
+        <v>141.9151357270683</v>
       </c>
       <c r="F26" t="n">
-        <v>739.714908284491</v>
+        <v>141.9151357270683</v>
       </c>
       <c r="G26" t="n">
-        <v>337.3830269021694</v>
+        <v>60.07069108156194</v>
       </c>
       <c r="H26" t="n">
         <v>60.07069108156194</v>
@@ -6226,28 +6226,28 @@
         <v>101.7102154067076</v>
       </c>
       <c r="J26" t="n">
-        <v>631.280551100502</v>
+        <v>596.1507915280437</v>
       </c>
       <c r="K26" t="n">
-        <v>846.1136630542976</v>
+        <v>810.9839034818394</v>
       </c>
       <c r="L26" t="n">
-        <v>1118.629671578129</v>
+        <v>1083.499912005671</v>
       </c>
       <c r="M26" t="n">
-        <v>1427.002522858946</v>
+        <v>1391.872763286488</v>
       </c>
       <c r="N26" t="n">
-        <v>1741.114913128937</v>
+        <v>1705.985153556479</v>
       </c>
       <c r="O26" t="n">
-        <v>2035.555356129461</v>
+        <v>2000.425596557003</v>
       </c>
       <c r="P26" t="n">
-        <v>2281.247049470422</v>
+        <v>2246.117289897965</v>
       </c>
       <c r="Q26" t="n">
-        <v>2762.403697278422</v>
+        <v>2914.642355556173</v>
       </c>
       <c r="R26" t="n">
         <v>3003.534554078097</v>
@@ -6262,16 +6262,16 @@
         <v>3003.534554078097</v>
       </c>
       <c r="V26" t="n">
-        <v>3003.534554078097</v>
+        <v>2646.045139204346</v>
       </c>
       <c r="W26" t="n">
-        <v>3003.534554078097</v>
+        <v>2249.653789504693</v>
       </c>
       <c r="X26" t="n">
-        <v>3003.534554078097</v>
+        <v>1837.93379067244</v>
       </c>
       <c r="Y26" t="n">
-        <v>2860.857745040463</v>
+        <v>1837.93379067244</v>
       </c>
     </row>
     <row r="27">
@@ -6296,37 +6296,37 @@
         <v>196.0546536273434</v>
       </c>
       <c r="G27" t="n">
-        <v>103.0748183734008</v>
+        <v>103.0748183734007</v>
       </c>
       <c r="H27" t="n">
         <v>60.07069108156194</v>
       </c>
       <c r="I27" t="n">
-        <v>80.29966308312359</v>
+        <v>103.7569689275355</v>
       </c>
       <c r="J27" t="n">
-        <v>159.3389879233875</v>
+        <v>316.3256816434199</v>
       </c>
       <c r="K27" t="n">
-        <v>307.1299422916356</v>
+        <v>464.1166360116681</v>
       </c>
       <c r="L27" t="n">
-        <v>513.3805319140353</v>
+        <v>670.3672256340678</v>
       </c>
       <c r="M27" t="n">
-        <v>757.2107328695365</v>
+        <v>914.1974265895692</v>
       </c>
       <c r="N27" t="n">
-        <v>1009.835798503732</v>
+        <v>1166.822492223765</v>
       </c>
       <c r="O27" t="n">
-        <v>1237.327662526591</v>
+        <v>1394.314356246624</v>
       </c>
       <c r="P27" t="n">
-        <v>1416.768316177413</v>
+        <v>1573.755009897445</v>
       </c>
       <c r="Q27" t="n">
-        <v>1791.049965673171</v>
+        <v>1685.594465388265</v>
       </c>
       <c r="R27" t="n">
         <v>1832.965147628227</v>
@@ -6387,10 +6387,10 @@
         <v>179.9501949187404</v>
       </c>
       <c r="K28" t="n">
-        <v>509.0007335470285</v>
+        <v>509.0007335470286</v>
       </c>
       <c r="L28" t="n">
-        <v>994.8841173302413</v>
+        <v>994.8841173302415</v>
       </c>
       <c r="M28" t="n">
         <v>1524.395656430017</v>
@@ -6402,7 +6402,7 @@
         <v>2517.08018148475</v>
       </c>
       <c r="P28" t="n">
-        <v>2802.642500785833</v>
+        <v>2914.405931706204</v>
       </c>
       <c r="Q28" t="n">
         <v>3003.534554078097</v>
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2386.058148028696</v>
+        <v>887.5267542744834</v>
       </c>
       <c r="C29" t="n">
-        <v>2014.108650762233</v>
+        <v>887.5267542744834</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.816029947233</v>
+        <v>887.5267542744834</v>
       </c>
       <c r="E29" t="n">
-        <v>1164.839090095091</v>
+        <v>887.5267542744834</v>
       </c>
       <c r="F29" t="n">
-        <v>739.714908284491</v>
+        <v>462.4025724638836</v>
       </c>
       <c r="G29" t="n">
-        <v>337.3830269021694</v>
+        <v>60.07069108156194</v>
       </c>
       <c r="H29" t="n">
         <v>60.07069108156194</v>
@@ -6463,25 +6463,25 @@
         <v>101.7102154067076</v>
       </c>
       <c r="J29" t="n">
-        <v>239.5513323928758</v>
+        <v>239.551332392876</v>
       </c>
       <c r="K29" t="n">
-        <v>454.3844443466714</v>
+        <v>454.3844443466717</v>
       </c>
       <c r="L29" t="n">
-        <v>726.900452870503</v>
+        <v>1197.759246481001</v>
       </c>
       <c r="M29" t="n">
-        <v>1035.27330415132</v>
+        <v>1506.132097761818</v>
       </c>
       <c r="N29" t="n">
-        <v>1349.385694421311</v>
+        <v>1820.244488031809</v>
       </c>
       <c r="O29" t="n">
-        <v>1643.826137421834</v>
+        <v>2114.684931032333</v>
       </c>
       <c r="P29" t="n">
-        <v>2093.878631620214</v>
+        <v>2360.376624373295</v>
       </c>
       <c r="Q29" t="n">
         <v>2762.403697278422</v>
@@ -6490,25 +6490,25 @@
         <v>3003.534554078097</v>
       </c>
       <c r="S29" t="n">
-        <v>3003.534554078097</v>
+        <v>2944.905897632023</v>
       </c>
       <c r="T29" t="n">
-        <v>2791.395418073806</v>
+        <v>2732.766761627731</v>
       </c>
       <c r="U29" t="n">
-        <v>2791.395418073806</v>
+        <v>2474.572426706402</v>
       </c>
       <c r="V29" t="n">
-        <v>2791.395418073806</v>
+        <v>2117.083011832651</v>
       </c>
       <c r="W29" t="n">
-        <v>2791.395418073806</v>
+        <v>1720.691662132998</v>
       </c>
       <c r="X29" t="n">
-        <v>2791.395418073806</v>
+        <v>1712.712388611123</v>
       </c>
       <c r="Y29" t="n">
-        <v>2386.058148028696</v>
+        <v>1307.375118566013</v>
       </c>
     </row>
     <row r="30">
@@ -6533,37 +6533,37 @@
         <v>196.0546536273434</v>
       </c>
       <c r="G30" t="n">
-        <v>103.0748183734008</v>
+        <v>103.0748183734007</v>
       </c>
       <c r="H30" t="n">
         <v>60.07069108156194</v>
       </c>
       <c r="I30" t="n">
-        <v>80.29966308312359</v>
+        <v>103.7569689275355</v>
       </c>
       <c r="J30" t="n">
-        <v>421.7811819283266</v>
+        <v>316.3256816434199</v>
       </c>
       <c r="K30" t="n">
-        <v>569.5721362965747</v>
+        <v>464.1166360116681</v>
       </c>
       <c r="L30" t="n">
-        <v>775.8227259189744</v>
+        <v>670.3672256340678</v>
       </c>
       <c r="M30" t="n">
-        <v>1019.652926874476</v>
+        <v>914.1974265895692</v>
       </c>
       <c r="N30" t="n">
-        <v>1272.277992508671</v>
+        <v>1166.822492223765</v>
       </c>
       <c r="O30" t="n">
-        <v>1499.76985653153</v>
+        <v>1394.314356246624</v>
       </c>
       <c r="P30" t="n">
-        <v>1679.210510182352</v>
+        <v>1573.755009897445</v>
       </c>
       <c r="Q30" t="n">
-        <v>1791.049965673171</v>
+        <v>1685.594465388265</v>
       </c>
       <c r="R30" t="n">
         <v>1832.965147628227</v>
@@ -6603,16 +6603,16 @@
         <v>935.2978981851352</v>
       </c>
       <c r="D31" t="n">
-        <v>771.9811253119058</v>
+        <v>771.9811253119059</v>
       </c>
       <c r="E31" t="n">
-        <v>605.7729194647593</v>
+        <v>605.7729194647594</v>
       </c>
       <c r="F31" t="n">
-        <v>433.9111452393197</v>
+        <v>433.9111452393198</v>
       </c>
       <c r="G31" t="n">
-        <v>268.5545278431409</v>
+        <v>268.554527843141</v>
       </c>
       <c r="H31" t="n">
         <v>132.7632098856423</v>
@@ -6624,19 +6624,19 @@
         <v>179.9501949187404</v>
       </c>
       <c r="K31" t="n">
-        <v>509.0007335470285</v>
+        <v>509.0007335470286</v>
       </c>
       <c r="L31" t="n">
-        <v>994.8841173302413</v>
+        <v>994.8841173302415</v>
       </c>
       <c r="M31" t="n">
-        <v>1524.395656430017</v>
+        <v>1412.632225509645</v>
       </c>
       <c r="N31" t="n">
-        <v>2036.923834413417</v>
+        <v>1925.160403493045</v>
       </c>
       <c r="O31" t="n">
-        <v>2517.08018148475</v>
+        <v>2405.316750564379</v>
       </c>
       <c r="P31" t="n">
         <v>2802.642500785833</v>
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1336.240981735404</v>
+        <v>1590.816029947233</v>
       </c>
       <c r="C32" t="n">
-        <v>909.3402517487041</v>
+        <v>1590.816029947233</v>
       </c>
       <c r="D32" t="n">
-        <v>486.0476309337044</v>
+        <v>1590.816029947233</v>
       </c>
       <c r="E32" t="n">
-        <v>60.07069108156194</v>
+        <v>1164.839090095091</v>
       </c>
       <c r="F32" t="n">
-        <v>60.07069108156194</v>
+        <v>739.714908284491</v>
       </c>
       <c r="G32" t="n">
-        <v>60.07069108156194</v>
+        <v>337.3830269021693</v>
       </c>
       <c r="H32" t="n">
         <v>60.07069108156194</v>
@@ -6700,52 +6700,52 @@
         <v>101.7102154067076</v>
       </c>
       <c r="J32" t="n">
-        <v>631.280551100502</v>
+        <v>631.2805511005022</v>
       </c>
       <c r="K32" t="n">
-        <v>846.1136630542976</v>
+        <v>846.1136630542979</v>
       </c>
       <c r="L32" t="n">
-        <v>1118.629671578129</v>
+        <v>1118.62967157813</v>
       </c>
       <c r="M32" t="n">
-        <v>1427.002522858946</v>
+        <v>1427.002522858947</v>
       </c>
       <c r="N32" t="n">
-        <v>1741.114913128937</v>
+        <v>1741.114913128938</v>
       </c>
       <c r="O32" t="n">
-        <v>2035.555356129461</v>
+        <v>2035.555356129462</v>
       </c>
       <c r="P32" t="n">
-        <v>2281.247049470422</v>
+        <v>2281.247049470424</v>
       </c>
       <c r="Q32" t="n">
-        <v>2762.403697278422</v>
+        <v>2914.642355556173</v>
       </c>
       <c r="R32" t="n">
         <v>3003.534554078097</v>
       </c>
       <c r="S32" t="n">
-        <v>3003.534554078097</v>
+        <v>2944.905897632023</v>
       </c>
       <c r="T32" t="n">
-        <v>2791.395418073806</v>
+        <v>2732.766761627731</v>
       </c>
       <c r="U32" t="n">
-        <v>2533.201083152476</v>
+        <v>2474.572426706402</v>
       </c>
       <c r="V32" t="n">
-        <v>2175.711668278725</v>
+        <v>2117.083011832651</v>
       </c>
       <c r="W32" t="n">
-        <v>2175.711668278725</v>
+        <v>1720.691662132998</v>
       </c>
       <c r="X32" t="n">
-        <v>1763.991669446473</v>
+        <v>1590.816029947233</v>
       </c>
       <c r="Y32" t="n">
-        <v>1756.089346026934</v>
+        <v>1590.816029947233</v>
       </c>
     </row>
     <row r="33">
@@ -6770,37 +6770,37 @@
         <v>196.0546536273434</v>
       </c>
       <c r="G33" t="n">
-        <v>103.0748183734008</v>
+        <v>103.0748183734007</v>
       </c>
       <c r="H33" t="n">
         <v>60.07069108156194</v>
       </c>
       <c r="I33" t="n">
-        <v>80.29966308312359</v>
+        <v>103.7569689275355</v>
       </c>
       <c r="J33" t="n">
-        <v>159.3389879233875</v>
+        <v>182.7962937677995</v>
       </c>
       <c r="K33" t="n">
-        <v>307.1299422916356</v>
+        <v>330.5872481360477</v>
       </c>
       <c r="L33" t="n">
-        <v>513.3805319140353</v>
+        <v>536.8378377584474</v>
       </c>
       <c r="M33" t="n">
-        <v>757.2107328695365</v>
+        <v>780.6680387139488</v>
       </c>
       <c r="N33" t="n">
-        <v>1009.835798503732</v>
+        <v>1033.293104348144</v>
       </c>
       <c r="O33" t="n">
-        <v>1237.327662526591</v>
+        <v>1260.784968371003</v>
       </c>
       <c r="P33" t="n">
-        <v>1416.768316177413</v>
+        <v>1440.225622021825</v>
       </c>
       <c r="Q33" t="n">
-        <v>1791.049965673171</v>
+        <v>1685.594465388265</v>
       </c>
       <c r="R33" t="n">
         <v>1832.965147628227</v>
@@ -6861,22 +6861,22 @@
         <v>179.9501949187404</v>
       </c>
       <c r="K34" t="n">
-        <v>509.0007335470285</v>
+        <v>509.0007335470286</v>
       </c>
       <c r="L34" t="n">
-        <v>883.1206864098705</v>
+        <v>994.8841173302415</v>
       </c>
       <c r="M34" t="n">
-        <v>1412.632225509646</v>
+        <v>1524.395656430017</v>
       </c>
       <c r="N34" t="n">
-        <v>1925.160403493046</v>
+        <v>2036.923834413417</v>
       </c>
       <c r="O34" t="n">
-        <v>2405.316750564379</v>
+        <v>2517.08018148475</v>
       </c>
       <c r="P34" t="n">
-        <v>2802.642500785833</v>
+        <v>2914.405931706204</v>
       </c>
       <c r="Q34" t="n">
         <v>3003.534554078097</v>
@@ -6913,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1574.424547296119</v>
+        <v>445.0872996782122</v>
       </c>
       <c r="C35" t="n">
-        <v>1147.523817309419</v>
+        <v>445.0872996782122</v>
       </c>
       <c r="D35" t="n">
-        <v>1147.523817309419</v>
+        <v>445.0872996782122</v>
       </c>
       <c r="E35" t="n">
-        <v>1147.523817309419</v>
+        <v>445.0872996782122</v>
       </c>
       <c r="F35" t="n">
-        <v>722.3996354988195</v>
+        <v>445.0872996782122</v>
       </c>
       <c r="G35" t="n">
-        <v>320.0677541164978</v>
+        <v>42.75541829589047</v>
       </c>
       <c r="H35" t="n">
-        <v>42.75541829589044</v>
+        <v>42.75541829589047</v>
       </c>
       <c r="I35" t="n">
-        <v>84.39494262103609</v>
+        <v>84.39494262103617</v>
       </c>
       <c r="J35" t="n">
         <v>222.2360596072045</v>
@@ -6943,7 +6943,7 @@
         <v>437.0691715610002</v>
       </c>
       <c r="L35" t="n">
-        <v>709.5851800848318</v>
+        <v>709.585180084832</v>
       </c>
       <c r="M35" t="n">
         <v>1017.958031365649</v>
@@ -6952,37 +6952,37 @@
         <v>1332.07042163564</v>
       </c>
       <c r="O35" t="n">
-        <v>1626.510864636163</v>
+        <v>1626.510864636164</v>
       </c>
       <c r="P35" t="n">
-        <v>1872.202557977125</v>
+        <v>1872.202557977126</v>
       </c>
       <c r="Q35" t="n">
-        <v>2048.878716272598</v>
+        <v>2048.878716272599</v>
       </c>
       <c r="R35" t="n">
-        <v>2137.770914794522</v>
+        <v>2137.770914794523</v>
       </c>
       <c r="S35" t="n">
-        <v>2137.770914794522</v>
+        <v>2079.142258348449</v>
       </c>
       <c r="T35" t="n">
-        <v>2137.770914794522</v>
+        <v>2079.142258348449</v>
       </c>
       <c r="U35" t="n">
-        <v>2137.770914794522</v>
+        <v>1820.94792342712</v>
       </c>
       <c r="V35" t="n">
-        <v>1986.144546128372</v>
+        <v>1658.535918255228</v>
       </c>
       <c r="W35" t="n">
-        <v>1986.144546128372</v>
+        <v>1262.144568555575</v>
       </c>
       <c r="X35" t="n">
-        <v>1574.424547296119</v>
+        <v>850.4245697233218</v>
       </c>
       <c r="Y35" t="n">
-        <v>1574.424547296119</v>
+        <v>445.0872996782122</v>
       </c>
     </row>
     <row r="36">
@@ -6992,10 +6992,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>598.4330068530408</v>
+        <v>598.4330068530409</v>
       </c>
       <c r="C36" t="n">
-        <v>480.9271033705455</v>
+        <v>480.9271033705456</v>
       </c>
       <c r="D36" t="n">
         <v>377.0871448858306</v>
@@ -7007,37 +7007,37 @@
         <v>178.739380841672</v>
       </c>
       <c r="G36" t="n">
-        <v>85.75954558772926</v>
+        <v>85.75954558772929</v>
       </c>
       <c r="H36" t="n">
-        <v>42.75541829589044</v>
+        <v>42.75541829589047</v>
       </c>
       <c r="I36" t="n">
-        <v>62.98439029745209</v>
+        <v>86.44169614186399</v>
       </c>
       <c r="J36" t="n">
-        <v>404.4659091426553</v>
+        <v>299.0104088577485</v>
       </c>
       <c r="K36" t="n">
-        <v>552.2568635109034</v>
+        <v>446.8013632259967</v>
       </c>
       <c r="L36" t="n">
-        <v>758.507453133303</v>
+        <v>653.0519528483965</v>
       </c>
       <c r="M36" t="n">
-        <v>1002.337654088804</v>
+        <v>896.8821538038978</v>
       </c>
       <c r="N36" t="n">
-        <v>1254.962719723</v>
+        <v>1149.507219438093</v>
       </c>
       <c r="O36" t="n">
-        <v>1482.454583745858</v>
+        <v>1376.999083460952</v>
       </c>
       <c r="P36" t="n">
-        <v>1661.89523739668</v>
+        <v>1556.439737111774</v>
       </c>
       <c r="Q36" t="n">
-        <v>1773.7346928875</v>
+        <v>1668.279192602594</v>
       </c>
       <c r="R36" t="n">
         <v>1815.649874842555</v>
@@ -7058,10 +7058,10 @@
         <v>1030.530251153148</v>
       </c>
       <c r="X36" t="n">
-        <v>867.0529049198111</v>
+        <v>867.0529049198112</v>
       </c>
       <c r="Y36" t="n">
-        <v>727.3600162731035</v>
+        <v>727.3600162731036</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>386.589755642414</v>
+        <v>853.9458968432381</v>
       </c>
       <c r="C37" t="n">
-        <v>214.61719252133</v>
+        <v>681.9733337221541</v>
       </c>
       <c r="D37" t="n">
-        <v>214.61719252133</v>
+        <v>681.9733337221541</v>
       </c>
       <c r="E37" t="n">
-        <v>214.61719252133</v>
+        <v>515.7651278750076</v>
       </c>
       <c r="F37" t="n">
-        <v>42.75541829589044</v>
+        <v>343.903353649568</v>
       </c>
       <c r="G37" t="n">
-        <v>42.75541829589044</v>
+        <v>178.5467362533892</v>
       </c>
       <c r="H37" t="n">
-        <v>42.75541829589044</v>
+        <v>42.75541829589047</v>
       </c>
       <c r="I37" t="n">
-        <v>42.75541829589044</v>
+        <v>42.75541829589047</v>
       </c>
       <c r="J37" t="n">
-        <v>84.713205484848</v>
+        <v>84.71320548484806</v>
       </c>
       <c r="K37" t="n">
-        <v>166.481134999114</v>
+        <v>166.4811349991141</v>
       </c>
       <c r="L37" t="n">
-        <v>275.9756251911619</v>
+        <v>546.8461064955295</v>
       </c>
       <c r="M37" t="n">
-        <v>698.2420836039697</v>
+        <v>1075.944407907174</v>
       </c>
       <c r="N37" t="n">
-        <v>1210.77026158737</v>
+        <v>1588.472585890574</v>
       </c>
       <c r="O37" t="n">
-        <v>1690.926608658703</v>
+        <v>1690.926608658704</v>
       </c>
       <c r="P37" t="n">
-        <v>2088.252358880157</v>
+        <v>2088.252358880158</v>
       </c>
       <c r="Q37" t="n">
-        <v>2137.770914794522</v>
+        <v>2137.770914794523</v>
       </c>
       <c r="R37" t="n">
-        <v>2137.770914794522</v>
+        <v>2131.215415329222</v>
       </c>
       <c r="S37" t="n">
-        <v>2121.853986717964</v>
+        <v>1976.771053098196</v>
       </c>
       <c r="T37" t="n">
-        <v>1882.361598812109</v>
+        <v>1737.27866519234</v>
       </c>
       <c r="U37" t="n">
-        <v>1602.226260438391</v>
+        <v>1737.27866519234</v>
       </c>
       <c r="V37" t="n">
-        <v>1320.51479304642</v>
+        <v>1737.27866519234</v>
       </c>
       <c r="W37" t="n">
-        <v>1045.662389218933</v>
+        <v>1513.018530419756</v>
       </c>
       <c r="X37" t="n">
-        <v>803.0984926647377</v>
+        <v>1270.454633865562</v>
       </c>
       <c r="Y37" t="n">
-        <v>576.7557243544798</v>
+        <v>1044.111865555304</v>
       </c>
     </row>
     <row r="38">
@@ -7150,37 +7150,37 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>743.3603749314975</v>
+        <v>2137.770914794522</v>
       </c>
       <c r="C38" t="n">
-        <v>743.3603749314975</v>
+        <v>1710.870184807823</v>
       </c>
       <c r="D38" t="n">
-        <v>320.0677541164978</v>
+        <v>1296.188421340954</v>
       </c>
       <c r="E38" t="n">
-        <v>320.0677541164978</v>
+        <v>870.211481488812</v>
       </c>
       <c r="F38" t="n">
-        <v>320.0677541164978</v>
+        <v>445.0872996782122</v>
       </c>
       <c r="G38" t="n">
-        <v>320.0677541164978</v>
+        <v>42.75541829589045</v>
       </c>
       <c r="H38" t="n">
-        <v>42.75541829589044</v>
+        <v>42.75541829589045</v>
       </c>
       <c r="I38" t="n">
-        <v>84.39494262103608</v>
+        <v>84.39494262103619</v>
       </c>
       <c r="J38" t="n">
-        <v>222.2360596072043</v>
+        <v>222.2360596072045</v>
       </c>
       <c r="K38" t="n">
         <v>437.0691715610003</v>
       </c>
       <c r="L38" t="n">
-        <v>709.5851800848322</v>
+        <v>709.585180084832</v>
       </c>
       <c r="M38" t="n">
         <v>1017.958031365649</v>
@@ -7189,13 +7189,13 @@
         <v>1332.07042163564</v>
       </c>
       <c r="O38" t="n">
-        <v>1626.510864636164</v>
+        <v>1626.510864636163</v>
       </c>
       <c r="P38" t="n">
         <v>1872.202557977125</v>
       </c>
       <c r="Q38" t="n">
-        <v>2048.878716272598</v>
+        <v>2048.878716272599</v>
       </c>
       <c r="R38" t="n">
         <v>2137.770914794522</v>
@@ -7207,19 +7207,19 @@
         <v>2137.770914794522</v>
       </c>
       <c r="U38" t="n">
-        <v>1902.578409550011</v>
+        <v>2137.770914794522</v>
       </c>
       <c r="V38" t="n">
-        <v>1545.08899467626</v>
+        <v>2137.770914794522</v>
       </c>
       <c r="W38" t="n">
-        <v>1148.697644976607</v>
+        <v>2137.770914794522</v>
       </c>
       <c r="X38" t="n">
-        <v>1148.697644976607</v>
+        <v>2137.770914794522</v>
       </c>
       <c r="Y38" t="n">
-        <v>743.3603749314975</v>
+        <v>2137.770914794522</v>
       </c>
     </row>
     <row r="39">
@@ -7247,31 +7247,31 @@
         <v>85.75954558772926</v>
       </c>
       <c r="H39" t="n">
-        <v>42.75541829589044</v>
+        <v>42.75541829589045</v>
       </c>
       <c r="I39" t="n">
-        <v>62.98439029745209</v>
+        <v>62.98439029745212</v>
       </c>
       <c r="J39" t="n">
-        <v>142.0237151377161</v>
+        <v>404.4659091426544</v>
       </c>
       <c r="K39" t="n">
-        <v>289.8146695059642</v>
+        <v>552.2568635109026</v>
       </c>
       <c r="L39" t="n">
-        <v>496.0652591283638</v>
+        <v>758.5074531333023</v>
       </c>
       <c r="M39" t="n">
-        <v>739.8954600838649</v>
+        <v>1002.337654088804</v>
       </c>
       <c r="N39" t="n">
-        <v>992.5205257180602</v>
+        <v>1254.962719722999</v>
       </c>
       <c r="O39" t="n">
-        <v>1220.012389740919</v>
+        <v>1482.454583745858</v>
       </c>
       <c r="P39" t="n">
-        <v>1399.453043391741</v>
+        <v>1661.89523739668</v>
       </c>
       <c r="Q39" t="n">
         <v>1773.7346928875</v>
@@ -7308,37 +7308,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>487.5547093938016</v>
+        <v>386.589755642414</v>
       </c>
       <c r="C40" t="n">
-        <v>315.5821462727176</v>
+        <v>214.61719252133</v>
       </c>
       <c r="D40" t="n">
-        <v>315.5821462727176</v>
+        <v>214.61719252133</v>
       </c>
       <c r="E40" t="n">
-        <v>149.3739404255712</v>
+        <v>214.61719252133</v>
       </c>
       <c r="F40" t="n">
-        <v>42.75541829589044</v>
+        <v>42.75541829589045</v>
       </c>
       <c r="G40" t="n">
-        <v>42.75541829589044</v>
+        <v>42.75541829589045</v>
       </c>
       <c r="H40" t="n">
-        <v>42.75541829589044</v>
+        <v>42.75541829589045</v>
       </c>
       <c r="I40" t="n">
-        <v>42.75541829589044</v>
+        <v>42.75541829589045</v>
       </c>
       <c r="J40" t="n">
-        <v>84.713205484848</v>
+        <v>84.71320548484805</v>
       </c>
       <c r="K40" t="n">
-        <v>166.481134999114</v>
+        <v>166.4811349991141</v>
       </c>
       <c r="L40" t="n">
-        <v>652.3645187823269</v>
+        <v>481.8999867656329</v>
       </c>
       <c r="M40" t="n">
         <v>1010.998288177277</v>
@@ -7359,25 +7359,25 @@
         <v>2137.770914794522</v>
       </c>
       <c r="S40" t="n">
-        <v>1983.326552563496</v>
+        <v>1983.326552563497</v>
       </c>
       <c r="T40" t="n">
-        <v>1983.326552563496</v>
+        <v>1743.834164657641</v>
       </c>
       <c r="U40" t="n">
-        <v>1703.191214189778</v>
+        <v>1463.698826283923</v>
       </c>
       <c r="V40" t="n">
-        <v>1421.479746797807</v>
+        <v>1320.51479304642</v>
       </c>
       <c r="W40" t="n">
-        <v>1146.62734297032</v>
+        <v>1045.662389218933</v>
       </c>
       <c r="X40" t="n">
-        <v>904.0634464161252</v>
+        <v>803.0984926647377</v>
       </c>
       <c r="Y40" t="n">
-        <v>677.7206781058673</v>
+        <v>576.7557243544798</v>
       </c>
     </row>
     <row r="41">
@@ -7387,52 +7387,52 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1117.520430258324</v>
+        <v>1717.922550502992</v>
       </c>
       <c r="C41" t="n">
-        <v>690.6197002716247</v>
+        <v>1317.149160773633</v>
       </c>
       <c r="D41" t="n">
-        <v>690.6197002716247</v>
+        <v>893.8565399586327</v>
       </c>
       <c r="E41" t="n">
-        <v>690.6197002716247</v>
+        <v>467.8796001064902</v>
       </c>
       <c r="F41" t="n">
-        <v>690.6197002716247</v>
+        <v>42.75541829589045</v>
       </c>
       <c r="G41" t="n">
-        <v>320.0677541164978</v>
+        <v>42.75541829589045</v>
       </c>
       <c r="H41" t="n">
-        <v>42.75541829589043</v>
+        <v>42.75541829589045</v>
       </c>
       <c r="I41" t="n">
-        <v>84.39494262103608</v>
+        <v>84.39494262103611</v>
       </c>
       <c r="J41" t="n">
-        <v>222.2360596072041</v>
+        <v>222.2360596072044</v>
       </c>
       <c r="K41" t="n">
-        <v>437.0691715609997</v>
+        <v>437.0691715610004</v>
       </c>
       <c r="L41" t="n">
-        <v>709.5851800848313</v>
+        <v>709.585180084832</v>
       </c>
       <c r="M41" t="n">
-        <v>1017.958031365648</v>
+        <v>1017.958031365649</v>
       </c>
       <c r="N41" t="n">
-        <v>1332.070421635639</v>
+        <v>1332.07042163564</v>
       </c>
       <c r="O41" t="n">
-        <v>1626.510864636163</v>
+        <v>1626.510864636164</v>
       </c>
       <c r="P41" t="n">
         <v>1872.202557977125</v>
       </c>
       <c r="Q41" t="n">
-        <v>2048.878716272598</v>
+        <v>2048.878716272599</v>
       </c>
       <c r="R41" t="n">
         <v>2137.770914794522</v>
@@ -7441,22 +7441,22 @@
         <v>2137.770914794522</v>
       </c>
       <c r="T41" t="n">
-        <v>1925.63177879023</v>
+        <v>2137.770914794522</v>
       </c>
       <c r="U41" t="n">
-        <v>1925.63177879023</v>
+        <v>2137.770914794522</v>
       </c>
       <c r="V41" t="n">
-        <v>1925.63177879023</v>
+        <v>2137.770914794522</v>
       </c>
       <c r="W41" t="n">
-        <v>1529.240429090577</v>
+        <v>2137.770914794522</v>
       </c>
       <c r="X41" t="n">
-        <v>1117.520430258324</v>
+        <v>2137.770914794522</v>
       </c>
       <c r="Y41" t="n">
-        <v>1117.520430258324</v>
+        <v>2137.770914794522</v>
       </c>
     </row>
     <row r="42">
@@ -7481,16 +7481,16 @@
         <v>178.739380841672</v>
       </c>
       <c r="G42" t="n">
-        <v>85.75954558772925</v>
+        <v>85.75954558772926</v>
       </c>
       <c r="H42" t="n">
-        <v>42.75541829589043</v>
+        <v>42.75541829589045</v>
       </c>
       <c r="I42" t="n">
-        <v>86.44169614186393</v>
+        <v>86.44169614186396</v>
       </c>
       <c r="J42" t="n">
-        <v>299.0104088577494</v>
+        <v>299.0104088577493</v>
       </c>
       <c r="K42" t="n">
         <v>446.8013632259975</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>521.642160396362</v>
+        <v>487.5547093938021</v>
       </c>
       <c r="C43" t="n">
-        <v>349.669597275278</v>
+        <v>315.5821462727181</v>
       </c>
       <c r="D43" t="n">
-        <v>349.669597275278</v>
+        <v>315.5821462727181</v>
       </c>
       <c r="E43" t="n">
-        <v>183.4613914281315</v>
+        <v>214.61719252133</v>
       </c>
       <c r="F43" t="n">
-        <v>42.75541829589043</v>
+        <v>42.75541829589045</v>
       </c>
       <c r="G43" t="n">
-        <v>42.75541829589043</v>
+        <v>42.75541829589045</v>
       </c>
       <c r="H43" t="n">
-        <v>42.75541829589043</v>
+        <v>42.75541829589045</v>
       </c>
       <c r="I43" t="n">
-        <v>42.75541829589043</v>
+        <v>42.75541829589045</v>
       </c>
       <c r="J43" t="n">
-        <v>162.6349221330689</v>
+        <v>84.71320548484802</v>
       </c>
       <c r="K43" t="n">
-        <v>491.685460761357</v>
+        <v>166.4811349991141</v>
       </c>
       <c r="L43" t="n">
-        <v>793.5055319595094</v>
+        <v>275.975625191162</v>
       </c>
       <c r="M43" t="n">
-        <v>1322.603833371154</v>
+        <v>805.0739266028063</v>
       </c>
       <c r="N43" t="n">
-        <v>1437.099088512674</v>
+        <v>1317.602104586207</v>
       </c>
       <c r="O43" t="n">
-        <v>1539.553111280804</v>
+        <v>1797.75845165754</v>
       </c>
       <c r="P43" t="n">
-        <v>1936.878861502258</v>
+        <v>2088.252358880158</v>
       </c>
       <c r="Q43" t="n">
         <v>2137.770914794522</v>
       </c>
       <c r="R43" t="n">
-        <v>2131.21541532922</v>
+        <v>2137.770914794522</v>
       </c>
       <c r="S43" t="n">
-        <v>1976.771053098194</v>
+        <v>1983.326552563497</v>
       </c>
       <c r="T43" t="n">
-        <v>1737.278665192339</v>
+        <v>1983.326552563497</v>
       </c>
       <c r="U43" t="n">
-        <v>1737.278665192339</v>
+        <v>1703.191214189779</v>
       </c>
       <c r="V43" t="n">
-        <v>1455.567197800367</v>
+        <v>1421.479746797808</v>
       </c>
       <c r="W43" t="n">
-        <v>1180.71479397288</v>
+        <v>1146.627342970321</v>
       </c>
       <c r="X43" t="n">
-        <v>938.1508974186855</v>
+        <v>904.0634464161257</v>
       </c>
       <c r="Y43" t="n">
-        <v>711.8081291084276</v>
+        <v>677.7206781058677</v>
       </c>
     </row>
     <row r="44">
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1117.520430258325</v>
+        <v>469.6561482825903</v>
       </c>
       <c r="C44" t="n">
-        <v>1117.520430258325</v>
+        <v>42.75541829589044</v>
       </c>
       <c r="D44" t="n">
-        <v>1117.520430258325</v>
+        <v>42.75541829589044</v>
       </c>
       <c r="E44" t="n">
-        <v>691.5434904061825</v>
+        <v>42.75541829589044</v>
       </c>
       <c r="F44" t="n">
-        <v>266.4193085955827</v>
+        <v>42.75541829589044</v>
       </c>
       <c r="G44" t="n">
         <v>42.75541829589044</v>
@@ -7645,25 +7645,25 @@
         <v>42.75541829589044</v>
       </c>
       <c r="I44" t="n">
-        <v>84.39494262103619</v>
+        <v>84.39494262103642</v>
       </c>
       <c r="J44" t="n">
-        <v>222.2360596072045</v>
+        <v>222.2360596072048</v>
       </c>
       <c r="K44" t="n">
-        <v>437.0691715610001</v>
+        <v>437.0691715610004</v>
       </c>
       <c r="L44" t="n">
-        <v>709.5851800848317</v>
+        <v>709.585180084832</v>
       </c>
       <c r="M44" t="n">
-        <v>1017.958031365648</v>
+        <v>1017.958031365649</v>
       </c>
       <c r="N44" t="n">
-        <v>1332.070421635639</v>
+        <v>1332.07042163564</v>
       </c>
       <c r="O44" t="n">
-        <v>1626.510864636163</v>
+        <v>1626.510864636164</v>
       </c>
       <c r="P44" t="n">
         <v>1872.202557977125</v>
@@ -7675,25 +7675,25 @@
         <v>2137.770914794522</v>
       </c>
       <c r="S44" t="n">
-        <v>2137.770914794522</v>
+        <v>2079.142258348448</v>
       </c>
       <c r="T44" t="n">
-        <v>1925.631778790231</v>
+        <v>1867.003122344157</v>
       </c>
       <c r="U44" t="n">
-        <v>1925.631778790231</v>
+        <v>1635.256911688247</v>
       </c>
       <c r="V44" t="n">
-        <v>1925.631778790231</v>
+        <v>1277.767496814496</v>
       </c>
       <c r="W44" t="n">
-        <v>1529.240429090578</v>
+        <v>881.3761471148431</v>
       </c>
       <c r="X44" t="n">
-        <v>1117.520430258325</v>
+        <v>469.6561482825903</v>
       </c>
       <c r="Y44" t="n">
-        <v>1117.520430258325</v>
+        <v>469.6561482825903</v>
       </c>
     </row>
     <row r="45">
@@ -7727,28 +7727,28 @@
         <v>86.44169614186394</v>
       </c>
       <c r="J45" t="n">
-        <v>165.4810209821279</v>
+        <v>299.0104088577493</v>
       </c>
       <c r="K45" t="n">
-        <v>313.271975350376</v>
+        <v>446.8013632259975</v>
       </c>
       <c r="L45" t="n">
-        <v>519.5225649727756</v>
+        <v>653.0519528483971</v>
       </c>
       <c r="M45" t="n">
-        <v>1002.337654088804</v>
+        <v>896.8821538038984</v>
       </c>
       <c r="N45" t="n">
-        <v>1254.962719723</v>
+        <v>1149.507219438094</v>
       </c>
       <c r="O45" t="n">
-        <v>1482.454583745858</v>
+        <v>1376.999083460953</v>
       </c>
       <c r="P45" t="n">
-        <v>1661.89523739668</v>
+        <v>1556.439737111774</v>
       </c>
       <c r="Q45" t="n">
-        <v>1773.7346928875</v>
+        <v>1668.279192602594</v>
       </c>
       <c r="R45" t="n">
         <v>1815.649874842555</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>386.589755642414</v>
+        <v>546.2928046602997</v>
       </c>
       <c r="C46" t="n">
-        <v>214.61719252133</v>
+        <v>374.3202415392157</v>
       </c>
       <c r="D46" t="n">
-        <v>214.61719252133</v>
+        <v>374.3202415392157</v>
       </c>
       <c r="E46" t="n">
-        <v>214.61719252133</v>
+        <v>208.1120356920692</v>
       </c>
       <c r="F46" t="n">
-        <v>42.75541829589044</v>
+        <v>208.1120356920692</v>
       </c>
       <c r="G46" t="n">
         <v>42.75541829589044</v>
@@ -7812,16 +7812,16 @@
         <v>166.481134999114</v>
       </c>
       <c r="L46" t="n">
-        <v>582.2660249670163</v>
+        <v>481.8999867656332</v>
       </c>
       <c r="M46" t="n">
-        <v>698.2420836039697</v>
+        <v>1010.998288177277</v>
       </c>
       <c r="N46" t="n">
-        <v>1210.77026158737</v>
+        <v>1523.526466160678</v>
       </c>
       <c r="O46" t="n">
-        <v>1690.926608658703</v>
+        <v>2003.682813232011</v>
       </c>
       <c r="P46" t="n">
         <v>2088.252358880157</v>
@@ -7833,25 +7833,25 @@
         <v>2137.770914794522</v>
       </c>
       <c r="S46" t="n">
-        <v>2121.853986717964</v>
+        <v>1983.326552563496</v>
       </c>
       <c r="T46" t="n">
-        <v>1882.361598812109</v>
+        <v>1743.834164657641</v>
       </c>
       <c r="U46" t="n">
-        <v>1602.226260438391</v>
+        <v>1463.698826283923</v>
       </c>
       <c r="V46" t="n">
-        <v>1320.51479304642</v>
+        <v>1463.698826283923</v>
       </c>
       <c r="W46" t="n">
-        <v>1045.662389218933</v>
+        <v>1188.846422456436</v>
       </c>
       <c r="X46" t="n">
-        <v>803.0984926647377</v>
+        <v>946.2825259022408</v>
       </c>
       <c r="Y46" t="n">
-        <v>576.7557243544798</v>
+        <v>719.9397575919828</v>
       </c>
     </row>
   </sheetData>
@@ -8768,7 +8768,7 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>134.8781695713337</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8789,7 +8789,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>134.878169571334</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>106.5207073584907</v>
@@ -8853,19 +8853,19 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M13" t="n">
-        <v>309.3842421978326</v>
+        <v>417.2951947219103</v>
       </c>
       <c r="N13" t="n">
         <v>402.0534574160406</v>
       </c>
       <c r="O13" t="n">
-        <v>381.5174992961649</v>
+        <v>209.331103319707</v>
       </c>
       <c r="P13" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -9026,7 +9026,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>265.0931252575135</v>
+        <v>265.0931252575133</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -9093,7 +9093,7 @@
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>417.2951947219101</v>
+        <v>417.29519472191</v>
       </c>
       <c r="N16" t="n">
         <v>402.0534574160406</v>
@@ -9242,7 +9242,7 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>134.8781695713336</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -9263,7 +9263,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>134.8781695713343</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>106.5207073584907</v>
@@ -9321,25 +9321,25 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>249.7804132464869</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M19" t="n">
-        <v>417.2951947219099</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>347.1707862464683</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P19" t="n">
-        <v>315.9153581548562</v>
+        <v>245.1087987454515</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -9476,10 +9476,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>134.8781695713339</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9500,10 +9500,10 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>265.0931252575143</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9558,19 +9558,19 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>62.53117759285229</v>
+        <v>309.384242197833</v>
       </c>
       <c r="M22" t="n">
-        <v>417.29519472191</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O22" t="n">
         <v>381.5174992961649</v>
@@ -9579,7 +9579,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q22" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9655,10 +9655,10 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>206.4250513711288</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>496.8170781441769</v>
+        <v>307.5560500126511</v>
       </c>
       <c r="R23" t="n">
         <v>153.7764225027789</v>
@@ -9713,10 +9713,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>134.8781695713338</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -9731,7 +9731,7 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>265.0931252575142</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -9740,7 +9740,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9798,7 +9798,7 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K25" t="n">
-        <v>249.7804132464869</v>
+        <v>136.8880587814653</v>
       </c>
       <c r="L25" t="n">
         <v>380.1908016072373</v>
@@ -9813,7 +9813,7 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P25" t="n">
-        <v>203.0230036898349</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q25" t="n">
         <v>152.9025226039384</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>395.6860795026527</v>
+        <v>360.2014738739068</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -9895,10 +9895,10 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>307.5560500126531</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R26" t="n">
-        <v>153.7764225027789</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9950,10 +9950,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>134.8781695713338</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9974,10 +9974,10 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>265.0931252575141</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10050,10 +10050,10 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P28" t="n">
-        <v>203.0230036898349</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q28" t="n">
-        <v>152.9025226039384</v>
+        <v>40.01016813891724</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10117,7 +10117,7 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>475.6149430409063</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -10129,10 +10129,10 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>206.4250513711288</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>496.8170781441769</v>
+        <v>227.6271864743977</v>
       </c>
       <c r="R29" t="n">
         <v>153.7764225027789</v>
@@ -10187,10 +10187,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J30" t="n">
-        <v>265.0931252575142</v>
+        <v>134.8781695713338</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10214,7 +10214,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10278,7 +10278,7 @@
         <v>380.1908016072373</v>
       </c>
       <c r="M31" t="n">
-        <v>417.7126065281028</v>
+        <v>304.8202520630811</v>
       </c>
       <c r="N31" t="n">
         <v>402.0534574160406</v>
@@ -10287,7 +10287,7 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P31" t="n">
-        <v>203.0230036898349</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q31" t="n">
         <v>152.9025226039384</v>
@@ -10369,10 +10369,10 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>307.5560500126531</v>
+        <v>461.3324725154301</v>
       </c>
       <c r="R32" t="n">
-        <v>153.7764225027789</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10424,7 +10424,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -10448,10 +10448,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>265.0931252575141</v>
+        <v>134.8781695713338</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10512,7 +10512,7 @@
         <v>249.7804132464869</v>
       </c>
       <c r="L34" t="n">
-        <v>267.2984471422162</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M34" t="n">
         <v>417.7126065281028</v>
@@ -10527,7 +10527,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q34" t="n">
-        <v>152.9025226039384</v>
+        <v>40.01016813891724</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10661,10 +10661,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J36" t="n">
-        <v>265.0931252575144</v>
+        <v>134.8781695713339</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10688,7 +10688,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10749,16 +10749,16 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>273.6065467720883</v>
       </c>
       <c r="M37" t="n">
-        <v>309.3842421978328</v>
+        <v>417.2951947219102</v>
       </c>
       <c r="N37" t="n">
         <v>402.0534574160406</v>
       </c>
       <c r="O37" t="n">
-        <v>381.5174992961649</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
         <v>315.9153581548562</v>
@@ -10901,7 +10901,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>265.0931252575133</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -10922,7 +10922,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>265.0931252575143</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -10986,10 +10986,10 @@
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>380.1908016072373</v>
+        <v>208.0044056307786</v>
       </c>
       <c r="M40" t="n">
-        <v>245.1087987454517</v>
+        <v>417.29519472191</v>
       </c>
       <c r="N40" t="n">
         <v>402.0534574160406</v>
@@ -11138,7 +11138,7 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J42" t="n">
-        <v>134.8781695713349</v>
+        <v>134.8781695713348</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11217,28 +11217,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>249.7804132464869</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>194.2682636425299</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>417.2951947219099</v>
+        <v>417.29519472191</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P43" t="n">
-        <v>315.9153581548562</v>
+        <v>208.0044056307792</v>
       </c>
       <c r="Q43" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11375,7 +11375,7 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>134.8781695713348</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -11384,7 +11384,7 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>241.3988769298257</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -11399,7 +11399,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11460,10 +11460,10 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>309.3842421978327</v>
+        <v>208.0044056307791</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>417.29519472191</v>
       </c>
       <c r="N46" t="n">
         <v>402.0534574160406</v>
@@ -11472,7 +11472,7 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P46" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>171.3524046936287</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
         <v>422.6317226868329</v>
@@ -23272,10 +23272,10 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
-        <v>398.3085625684984</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>60.06304922331049</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23308,13 +23308,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>58.04236988161367</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>210.0177446442483</v>
       </c>
       <c r="U11" t="n">
-        <v>255.612391572116</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23323,7 +23323,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23418,25 +23418,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>26.98802758563306</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>73.37450611058259</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
         <v>163.7030512222169</v>
       </c>
       <c r="H13" t="n">
-        <v>134.4334047779237</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>71.96559361603954</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>6.489944470648581</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>152.8999186087154</v>
       </c>
       <c r="T13" t="n">
-        <v>237.097464026797</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>422.6317226868329</v>
@@ -23506,13 +23506,13 @@
         <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>398.3085625684984</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>274.5392124624013</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23545,22 +23545,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>58.04236988161367</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>210.0177446442482</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>258.2597250379746</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>407.6027988439302</v>
+        <v>228.2437509471477</v>
       </c>
       <c r="Y14" t="n">
         <v>401.2838973446586</v>
@@ -23658,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>70.84660226027911</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>163.7030512222169</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>134.4334047779237</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>71.96559361603954</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,19 +23700,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>6.489944470648581</v>
+        <v>6.489944470648574</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>200.6482020902737</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>277.3339849899809</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>266.701865059642</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23746,7 +23746,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G17" t="n">
-        <v>398.3085625684984</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23782,25 +23782,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>58.04236988161367</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>210.0177446442483</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>255.612391572116</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>353.914520725013</v>
+        <v>318.0608776139269</v>
       </c>
       <c r="W17" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="18">
@@ -23898,16 +23898,16 @@
         <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>154.4352368970728</v>
       </c>
       <c r="H19" t="n">
-        <v>50.08634636435536</v>
+        <v>134.4334047779237</v>
       </c>
       <c r="I19" t="n">
         <v>71.96559361603954</v>
@@ -23940,16 +23940,16 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>152.8999186087154</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>277.3339849899809</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23971,10 +23971,10 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D20" t="n">
-        <v>330.9018106809803</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E20" t="n">
         <v>421.717170453621</v>
@@ -23983,10 +23983,10 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G20" t="n">
-        <v>398.3085625684984</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>274.5392124624013</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24019,10 +24019,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>58.04236988161369</v>
+        <v>28.83438559940012</v>
       </c>
       <c r="T20" t="n">
-        <v>210.0177446442483</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>255.612391572116</v>
@@ -24037,7 +24037,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="21">
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24141,13 +24141,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>154.4352368970728</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>134.4334047779237</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>71.96559361603954</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,7 +24177,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>152.8999186087154</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24186,7 +24186,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>101.3905042476518</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24211,10 +24211,10 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D23" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -24256,22 +24256,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>58.04236988161367</v>
       </c>
       <c r="T23" t="n">
-        <v>210.0177446442483</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>130.7435382593763</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>226.3731590563227</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y23" t="n">
         <v>401.2838973446586</v>
@@ -24454,13 +24454,13 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>317.2825623694471</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>274.5392124624013</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24493,7 +24493,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>58.04236988161369</v>
+        <v>58.04236988161367</v>
       </c>
       <c r="T26" t="n">
         <v>210.0177446442483</v>
@@ -24502,16 +24502,16 @@
         <v>255.612391572116</v>
       </c>
       <c r="V26" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>260.0338563974009</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="27">
@@ -24679,16 +24679,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>54.40172039303462</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -24697,7 +24697,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>274.5392124624013</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24730,22 +24730,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>58.04236988161369</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>255.612391572116</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>407.6027988439302</v>
+        <v>399.7033180572739</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24916,25 +24916,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>398.3085625684984</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>274.5392124624013</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24967,7 +24967,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>58.04236988161369</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -24979,13 +24979,13 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>279.0259229800231</v>
       </c>
       <c r="Y32" t="n">
-        <v>393.4605971593152</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="33">
@@ -25156,7 +25156,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D35" t="n">
         <v>419.0596946068497</v>
@@ -25165,13 +25165,13 @@
         <v>421.717170453621</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>274.5392124624013</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25204,25 +25204,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>58.04236988161369</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>210.0177446442483</v>
       </c>
       <c r="U35" t="n">
-        <v>255.612391572116</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>203.8044157455245</v>
+        <v>193.1266356048398</v>
       </c>
       <c r="W35" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25320,19 +25320,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>163.7030512222169</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>134.4334047779237</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>71.96559361603956</v>
+        <v>71.96559361603954</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,22 +25359,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>6.489944470648595</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>137.1421598129233</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>277.3339849899809</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>50.08634636435394</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25393,22 +25393,22 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C38" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>8.524748774650163</v>
       </c>
       <c r="E38" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>398.3085625684984</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>274.5392124624013</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25441,25 +25441,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>58.04236988161369</v>
+        <v>58.04236988161367</v>
       </c>
       <c r="T38" t="n">
         <v>210.0177446442483</v>
       </c>
       <c r="U38" t="n">
-        <v>22.77181138004988</v>
+        <v>255.612391572116</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X38" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="39">
@@ -25557,10 +25557,10 @@
         <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
-        <v>64.59081957480126</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>163.7030512222169</v>
@@ -25569,7 +25569,7 @@
         <v>134.4334047779237</v>
       </c>
       <c r="I40" t="n">
-        <v>71.96559361603956</v>
+        <v>71.96559361603954</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,19 +25596,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>6.489944470648595</v>
+        <v>6.489944470648581</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>237.097464026797</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>137.1421598129228</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25627,25 +25627,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>25.86606685476659</v>
       </c>
       <c r="D41" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>31.46213587492292</v>
+        <v>398.3085625684984</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>274.5392124624013</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25678,10 +25678,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>58.04236988161369</v>
+        <v>58.04236988161368</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>210.0177446442483</v>
       </c>
       <c r="U41" t="n">
         <v>255.612391572116</v>
@@ -25690,10 +25690,10 @@
         <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y41" t="n">
         <v>401.2838973446586</v>
@@ -25794,10 +25794,10 @@
         <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>64.59081957480079</v>
       </c>
       <c r="F43" t="n">
-        <v>30.8442430822665</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>163.7030512222169</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>6.489944470648595</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>237.097464026797</v>
       </c>
       <c r="U43" t="n">
-        <v>277.3339849899809</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25867,19 +25867,19 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
-        <v>176.8813111718031</v>
+        <v>398.3085625684984</v>
       </c>
       <c r="H44" t="n">
         <v>274.5392124624013</v>
@@ -25915,16 +25915,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>58.04236988161369</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>255.612391572116</v>
+        <v>26.18364302276527</v>
       </c>
       <c r="V44" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>16.35382562257871</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26031,13 +26031,13 @@
         <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>163.7030512222169</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>134.4334047779237</v>
@@ -26073,7 +26073,7 @@
         <v>6.489944470648595</v>
       </c>
       <c r="S46" t="n">
-        <v>137.1421598129233</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26082,7 +26082,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>305130.681094137</v>
+        <v>305130.6810941373</v>
       </c>
     </row>
     <row r="6">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>423535.6332041307</v>
+        <v>423535.6332041306</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>423535.6332041307</v>
+        <v>423535.6332041306</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>423535.6332041307</v>
+        <v>423535.6332041306</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>305130.6810941371</v>
+        <v>305130.6810941372</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>305130.681094137</v>
+        <v>305130.6810941371</v>
       </c>
     </row>
     <row r="15">
@@ -26313,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>530725.4205566853</v>
+        <v>530725.4205566852</v>
       </c>
       <c r="C2" t="n">
-        <v>530725.4205566854</v>
+        <v>530725.4205566851</v>
       </c>
       <c r="D2" t="n">
-        <v>530725.4205566854</v>
+        <v>530725.4205566852</v>
       </c>
       <c r="E2" t="n">
+        <v>315596.4771804494</v>
+      </c>
+      <c r="F2" t="n">
         <v>315596.4771804491</v>
-      </c>
-      <c r="F2" t="n">
-        <v>315596.4771804493</v>
       </c>
       <c r="G2" t="n">
         <v>315596.4771804491</v>
@@ -26334,28 +26334,28 @@
         <v>315596.4771804491</v>
       </c>
       <c r="I2" t="n">
-        <v>396090.2160723282</v>
+        <v>396090.2160723284</v>
       </c>
       <c r="J2" t="n">
+        <v>396090.2160723284</v>
+      </c>
+      <c r="K2" t="n">
         <v>396090.2160723281</v>
       </c>
-      <c r="K2" t="n">
-        <v>396090.2160723282</v>
-      </c>
       <c r="L2" t="n">
-        <v>396090.2160723282</v>
+        <v>396090.2160723284</v>
       </c>
       <c r="M2" t="n">
-        <v>315596.477180449</v>
+        <v>315596.4771804492</v>
       </c>
       <c r="N2" t="n">
         <v>315596.4771804491</v>
       </c>
       <c r="O2" t="n">
+        <v>315596.4771804491</v>
+      </c>
+      <c r="P2" t="n">
         <v>315596.477180449</v>
-      </c>
-      <c r="P2" t="n">
-        <v>315596.4771804491</v>
       </c>
     </row>
     <row r="3">
@@ -26374,10 +26374,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>556689.6559222535</v>
+        <v>556689.6559222536</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>8.041615094651678e-11</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>57556.18318048187</v>
+        <v>57556.18318048181</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>79247.32527160752</v>
+        <v>79247.32527160755</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26432,34 +26432,34 @@
         <v>24095.49097269664</v>
       </c>
       <c r="G4" t="n">
+        <v>24095.49097269663</v>
+      </c>
+      <c r="H4" t="n">
         <v>24095.49097269664</v>
       </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
+        <v>70841.91069994378</v>
+      </c>
+      <c r="J4" t="n">
+        <v>70841.91069994384</v>
+      </c>
+      <c r="K4" t="n">
+        <v>70841.91069994378</v>
+      </c>
+      <c r="L4" t="n">
+        <v>70841.91069994379</v>
+      </c>
+      <c r="M4" t="n">
+        <v>24095.49097269665</v>
+      </c>
+      <c r="N4" t="n">
+        <v>24095.49097269664</v>
+      </c>
+      <c r="O4" t="n">
+        <v>24095.49097269667</v>
+      </c>
+      <c r="P4" t="n">
         <v>24095.49097269666</v>
-      </c>
-      <c r="I4" t="n">
-        <v>70841.91069994388</v>
-      </c>
-      <c r="J4" t="n">
-        <v>70841.91069994388</v>
-      </c>
-      <c r="K4" t="n">
-        <v>70841.9106999439</v>
-      </c>
-      <c r="L4" t="n">
-        <v>70841.91069994388</v>
-      </c>
-      <c r="M4" t="n">
-        <v>24095.49097269667</v>
-      </c>
-      <c r="N4" t="n">
-        <v>24095.49097269667</v>
-      </c>
-      <c r="O4" t="n">
-        <v>24095.49097269665</v>
-      </c>
-      <c r="P4" t="n">
-        <v>24095.49097269667</v>
       </c>
     </row>
     <row r="5">
@@ -26478,16 +26478,16 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>43269.71441650123</v>
+        <v>43269.71441650124</v>
       </c>
       <c r="F5" t="n">
         <v>43269.71441650124</v>
       </c>
       <c r="G5" t="n">
-        <v>43269.71441650122</v>
+        <v>43269.71441650124</v>
       </c>
       <c r="H5" t="n">
-        <v>43269.71441650121</v>
+        <v>43269.71441650124</v>
       </c>
       <c r="I5" t="n">
         <v>56429.32173361156</v>
@@ -26502,13 +26502,13 @@
         <v>56429.32173361156</v>
       </c>
       <c r="M5" t="n">
-        <v>43269.71441650121</v>
+        <v>43269.71441650124</v>
       </c>
       <c r="N5" t="n">
-        <v>43269.71441650121</v>
+        <v>43269.71441650123</v>
       </c>
       <c r="O5" t="n">
-        <v>43269.71441650121</v>
+        <v>43269.71441650123</v>
       </c>
       <c r="P5" t="n">
         <v>43269.71441650121</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>171413.4150777182</v>
+        <v>171391.7014362217</v>
       </c>
       <c r="C6" t="n">
-        <v>171413.4150777183</v>
+        <v>171391.7014362216</v>
       </c>
       <c r="D6" t="n">
-        <v>171413.4150777183</v>
+        <v>171391.7014362217</v>
       </c>
       <c r="E6" t="n">
-        <v>-308458.3841310022</v>
+        <v>-309061.527349191</v>
       </c>
       <c r="F6" t="n">
-        <v>248231.2717912514</v>
+        <v>247628.1285730623</v>
       </c>
       <c r="G6" t="n">
-        <v>248231.2717912512</v>
+        <v>247628.1285730624</v>
       </c>
       <c r="H6" t="n">
-        <v>248231.2717912512</v>
+        <v>247628.1285730624</v>
       </c>
       <c r="I6" t="n">
-        <v>211262.8004582909</v>
+        <v>210877.2078857561</v>
       </c>
       <c r="J6" t="n">
-        <v>268818.9836387726</v>
+        <v>268433.3910662378</v>
       </c>
       <c r="K6" t="n">
-        <v>268818.9836387727</v>
+        <v>268433.3910662376</v>
       </c>
       <c r="L6" t="n">
-        <v>268818.9836387727</v>
+        <v>268433.3910662379</v>
       </c>
       <c r="M6" t="n">
-        <v>168983.9465196436</v>
+        <v>168380.8033014548</v>
       </c>
       <c r="N6" t="n">
-        <v>248231.2717912512</v>
+        <v>247628.1285730623</v>
       </c>
       <c r="O6" t="n">
-        <v>248231.2717912512</v>
+        <v>247628.1285730623</v>
       </c>
       <c r="P6" t="n">
-        <v>248231.2717912512</v>
+        <v>247628.1285730623</v>
       </c>
     </row>
   </sheetData>
@@ -26746,34 +26746,34 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
+        <v>494.2934179644261</v>
+      </c>
+      <c r="F3" t="n">
+        <v>494.2934179644261</v>
+      </c>
+      <c r="G3" t="n">
+        <v>494.2934179644261</v>
+      </c>
+      <c r="H3" t="n">
         <v>494.293417964426</v>
       </c>
-      <c r="F3" t="n">
-        <v>494.2934179644259</v>
-      </c>
-      <c r="G3" t="n">
-        <v>494.2934179644259</v>
-      </c>
-      <c r="H3" t="n">
-        <v>494.2934179644258</v>
-      </c>
       <c r="I3" t="n">
-        <v>494.2934179644258</v>
+        <v>494.293417964426</v>
       </c>
       <c r="J3" t="n">
-        <v>494.2934179644258</v>
+        <v>494.293417964426</v>
       </c>
       <c r="K3" t="n">
-        <v>494.2934179644258</v>
+        <v>494.293417964426</v>
       </c>
       <c r="L3" t="n">
-        <v>494.2934179644258</v>
+        <v>494.293417964426</v>
       </c>
       <c r="M3" t="n">
-        <v>494.2934179644258</v>
+        <v>494.293417964426</v>
       </c>
       <c r="N3" t="n">
-        <v>494.2934179644258</v>
+        <v>494.293417964426</v>
       </c>
       <c r="O3" t="n">
         <v>494.2934179644258</v>
@@ -26798,16 +26798,16 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>534.4427286986306</v>
+        <v>534.442728698631</v>
       </c>
       <c r="F4" t="n">
         <v>534.4427286986307</v>
       </c>
       <c r="G4" t="n">
-        <v>534.4427286986305</v>
+        <v>534.4427286986307</v>
       </c>
       <c r="H4" t="n">
-        <v>534.4427286986305</v>
+        <v>534.4427286986307</v>
       </c>
       <c r="I4" t="n">
         <v>750.8836385195242</v>
@@ -26822,13 +26822,13 @@
         <v>750.8836385195242</v>
       </c>
       <c r="M4" t="n">
-        <v>534.4427286986305</v>
+        <v>534.4427286986308</v>
       </c>
       <c r="N4" t="n">
-        <v>534.4427286986305</v>
+        <v>534.4427286986306</v>
       </c>
       <c r="O4" t="n">
-        <v>534.4427286986304</v>
+        <v>534.4427286986306</v>
       </c>
       <c r="P4" t="n">
         <v>534.4427286986305</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>494.293417964426</v>
+        <v>494.2934179644261</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,10 +27020,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>534.4427286986306</v>
+        <v>534.4427286986307</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>2.806591755949435e-13</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>216.4409098208937</v>
+        <v>216.4409098208935</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>318.0018188777368</v>
+        <v>318.0018188777369</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,10 +27266,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>534.4427286986306</v>
+        <v>534.4427286986307</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>2.806591755949435e-13</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -31764,13 +31764,13 @@
         <v>168.6534109867667</v>
       </c>
       <c r="K11" t="n">
-        <v>252.7677441824818</v>
+        <v>252.7677441824819</v>
       </c>
       <c r="L11" t="n">
         <v>313.5807379112409</v>
       </c>
       <c r="M11" t="n">
-        <v>348.9189914659136</v>
+        <v>348.9189914659137</v>
       </c>
       <c r="N11" t="n">
         <v>354.5648655314068</v>
@@ -31782,7 +31782,7 @@
         <v>285.7487894273645</v>
       </c>
       <c r="Q11" t="n">
-        <v>214.5854405596217</v>
+        <v>214.5854405596218</v>
       </c>
       <c r="R11" t="n">
         <v>124.822749411891</v>
@@ -31831,7 +31831,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.063197163168765</v>
+        <v>1.063197163168766</v>
       </c>
       <c r="H12" t="n">
         <v>10.26824628639308</v>
@@ -31846,16 +31846,16 @@
         <v>171.6830261244932</v>
       </c>
       <c r="L12" t="n">
-        <v>230.8490156257444</v>
+        <v>230.8490156257445</v>
       </c>
       <c r="M12" t="n">
-        <v>269.3899127906121</v>
+        <v>269.3899127906122</v>
       </c>
       <c r="N12" t="n">
-        <v>276.5198621874764</v>
+        <v>276.5198621874765</v>
       </c>
       <c r="O12" t="n">
-        <v>252.9616513614737</v>
+        <v>252.9616513614738</v>
       </c>
       <c r="P12" t="n">
         <v>203.0240267107093</v>
@@ -31867,10 +31867,10 @@
         <v>66.01148702551338</v>
       </c>
       <c r="S12" t="n">
-        <v>19.74842099131455</v>
+        <v>19.74842099131456</v>
       </c>
       <c r="T12" t="n">
-        <v>4.285430670842522</v>
+        <v>4.285430670842523</v>
       </c>
       <c r="U12" t="n">
         <v>0.06994718178741881</v>
@@ -31910,10 +31910,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8913487864932271</v>
+        <v>0.8913487864932272</v>
       </c>
       <c r="H13" t="n">
-        <v>7.924901029003425</v>
+        <v>7.924901029003426</v>
       </c>
       <c r="I13" t="n">
         <v>26.80528896108724</v>
@@ -31934,7 +31934,7 @@
         <v>136.4006738458228</v>
       </c>
       <c r="O13" t="n">
-        <v>125.9880993854245</v>
+        <v>125.9880993854246</v>
       </c>
       <c r="P13" t="n">
         <v>107.8045841409626</v>
@@ -31943,7 +31943,7 @@
         <v>74.63830611262833</v>
       </c>
       <c r="R13" t="n">
-        <v>40.07828270905</v>
+        <v>40.07828270905001</v>
       </c>
       <c r="S13" t="n">
         <v>15.53377839734105</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.987109217947439</v>
+        <v>1.98710921794744</v>
       </c>
       <c r="H14" t="n">
-        <v>20.35048227830422</v>
+        <v>20.35048227830423</v>
       </c>
       <c r="I14" t="n">
-        <v>76.60802812491873</v>
+        <v>76.60802812491876</v>
       </c>
       <c r="J14" t="n">
-        <v>168.6534109867666</v>
+        <v>168.6534109867667</v>
       </c>
       <c r="K14" t="n">
-        <v>252.7677441824818</v>
+        <v>252.7677441824819</v>
       </c>
       <c r="L14" t="n">
-        <v>313.5807379112408</v>
+        <v>313.5807379112409</v>
       </c>
       <c r="M14" t="n">
-        <v>348.9189914659136</v>
+        <v>348.9189914659137</v>
       </c>
       <c r="N14" t="n">
-        <v>354.5648655314068</v>
+        <v>354.5648655314069</v>
       </c>
       <c r="O14" t="n">
-        <v>334.8055482454419</v>
+        <v>334.805548245442</v>
       </c>
       <c r="P14" t="n">
-        <v>285.7487894273644</v>
+        <v>285.7487894273646</v>
       </c>
       <c r="Q14" t="n">
-        <v>214.5854405596217</v>
+        <v>214.5854405596218</v>
       </c>
       <c r="R14" t="n">
         <v>124.822749411891</v>
       </c>
       <c r="S14" t="n">
-        <v>45.28125130397732</v>
+        <v>45.28125130397733</v>
       </c>
       <c r="T14" t="n">
-        <v>8.698570601564921</v>
+        <v>8.698570601564924</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1589687374357951</v>
+        <v>0.1589687374357952</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.063197163168765</v>
+        <v>1.063197163168766</v>
       </c>
       <c r="H15" t="n">
         <v>10.26824628639308</v>
       </c>
       <c r="I15" t="n">
-        <v>36.60569180208249</v>
+        <v>36.6056918020825</v>
       </c>
       <c r="J15" t="n">
         <v>100.4488161921859</v>
       </c>
       <c r="K15" t="n">
-        <v>171.6830261244931</v>
+        <v>171.6830261244932</v>
       </c>
       <c r="L15" t="n">
-        <v>230.8490156257444</v>
+        <v>230.8490156257445</v>
       </c>
       <c r="M15" t="n">
-        <v>269.3899127906121</v>
+        <v>269.3899127906122</v>
       </c>
       <c r="N15" t="n">
-        <v>276.5198621874763</v>
+        <v>276.5198621874765</v>
       </c>
       <c r="O15" t="n">
-        <v>252.9616513614737</v>
+        <v>252.9616513614738</v>
       </c>
       <c r="P15" t="n">
-        <v>203.0240267107092</v>
+        <v>203.0240267107093</v>
       </c>
       <c r="Q15" t="n">
-        <v>135.7161852494024</v>
+        <v>135.7161852494025</v>
       </c>
       <c r="R15" t="n">
-        <v>66.01148702551336</v>
+        <v>66.01148702551339</v>
       </c>
       <c r="S15" t="n">
-        <v>19.74842099131455</v>
+        <v>19.74842099131456</v>
       </c>
       <c r="T15" t="n">
-        <v>4.285430670842522</v>
+        <v>4.285430670842523</v>
       </c>
       <c r="U15" t="n">
-        <v>0.06994718178741879</v>
+        <v>0.06994718178741882</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,16 +32147,16 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.891348786493227</v>
+        <v>0.8913487864932274</v>
       </c>
       <c r="H16" t="n">
-        <v>7.924901029003424</v>
+        <v>7.924901029003427</v>
       </c>
       <c r="I16" t="n">
         <v>26.80528896108724</v>
       </c>
       <c r="J16" t="n">
-        <v>63.01835920507115</v>
+        <v>63.01835920507117</v>
       </c>
       <c r="K16" t="n">
         <v>103.5585226489404</v>
@@ -32168,28 +32168,28 @@
         <v>139.7229738682065</v>
       </c>
       <c r="N16" t="n">
-        <v>136.4006738458227</v>
+        <v>136.4006738458228</v>
       </c>
       <c r="O16" t="n">
-        <v>125.9880993854245</v>
+        <v>125.9880993854246</v>
       </c>
       <c r="P16" t="n">
         <v>107.8045841409626</v>
       </c>
       <c r="Q16" t="n">
-        <v>74.63830611262831</v>
+        <v>74.63830611262834</v>
       </c>
       <c r="R16" t="n">
-        <v>40.07828270905</v>
+        <v>40.07828270905001</v>
       </c>
       <c r="S16" t="n">
-        <v>15.53377839734105</v>
+        <v>15.53377839734106</v>
       </c>
       <c r="T16" t="n">
-        <v>3.808490269561969</v>
+        <v>3.80849026956197</v>
       </c>
       <c r="U16" t="n">
-        <v>0.04861902471781244</v>
+        <v>0.04861902471781245</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.987109217947439</v>
+        <v>1.98710921794744</v>
       </c>
       <c r="H17" t="n">
-        <v>20.35048227830422</v>
+        <v>20.35048227830423</v>
       </c>
       <c r="I17" t="n">
-        <v>76.60802812491873</v>
+        <v>76.60802812491876</v>
       </c>
       <c r="J17" t="n">
-        <v>168.6534109867666</v>
+        <v>168.6534109867667</v>
       </c>
       <c r="K17" t="n">
-        <v>252.7677441824818</v>
+        <v>252.7677441824819</v>
       </c>
       <c r="L17" t="n">
-        <v>313.5807379112408</v>
+        <v>313.5807379112409</v>
       </c>
       <c r="M17" t="n">
-        <v>348.9189914659136</v>
+        <v>348.9189914659137</v>
       </c>
       <c r="N17" t="n">
-        <v>354.5648655314068</v>
+        <v>354.5648655314069</v>
       </c>
       <c r="O17" t="n">
-        <v>334.8055482454419</v>
+        <v>334.805548245442</v>
       </c>
       <c r="P17" t="n">
-        <v>285.7487894273644</v>
+        <v>285.7487894273646</v>
       </c>
       <c r="Q17" t="n">
-        <v>214.5854405596217</v>
+        <v>214.5854405596218</v>
       </c>
       <c r="R17" t="n">
         <v>124.822749411891</v>
       </c>
       <c r="S17" t="n">
-        <v>45.28125130397732</v>
+        <v>45.28125130397733</v>
       </c>
       <c r="T17" t="n">
-        <v>8.698570601564921</v>
+        <v>8.698570601564924</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1589687374357951</v>
+        <v>0.1589687374357952</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.063197163168765</v>
+        <v>1.063197163168766</v>
       </c>
       <c r="H18" t="n">
         <v>10.26824628639308</v>
       </c>
       <c r="I18" t="n">
-        <v>36.60569180208249</v>
+        <v>36.6056918020825</v>
       </c>
       <c r="J18" t="n">
         <v>100.4488161921859</v>
       </c>
       <c r="K18" t="n">
-        <v>171.6830261244931</v>
+        <v>171.6830261244932</v>
       </c>
       <c r="L18" t="n">
-        <v>230.8490156257444</v>
+        <v>230.8490156257445</v>
       </c>
       <c r="M18" t="n">
-        <v>269.3899127906121</v>
+        <v>269.3899127906122</v>
       </c>
       <c r="N18" t="n">
-        <v>276.5198621874763</v>
+        <v>276.5198621874765</v>
       </c>
       <c r="O18" t="n">
-        <v>252.9616513614737</v>
+        <v>252.9616513614738</v>
       </c>
       <c r="P18" t="n">
-        <v>203.0240267107092</v>
+        <v>203.0240267107093</v>
       </c>
       <c r="Q18" t="n">
-        <v>135.7161852494024</v>
+        <v>135.7161852494025</v>
       </c>
       <c r="R18" t="n">
-        <v>66.01148702551336</v>
+        <v>66.01148702551339</v>
       </c>
       <c r="S18" t="n">
-        <v>19.74842099131455</v>
+        <v>19.74842099131456</v>
       </c>
       <c r="T18" t="n">
-        <v>4.285430670842522</v>
+        <v>4.285430670842523</v>
       </c>
       <c r="U18" t="n">
-        <v>0.06994718178741879</v>
+        <v>0.06994718178741882</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,16 +32384,16 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.891348786493227</v>
+        <v>0.8913487864932274</v>
       </c>
       <c r="H19" t="n">
-        <v>7.924901029003424</v>
+        <v>7.924901029003427</v>
       </c>
       <c r="I19" t="n">
         <v>26.80528896108724</v>
       </c>
       <c r="J19" t="n">
-        <v>63.01835920507115</v>
+        <v>63.01835920507117</v>
       </c>
       <c r="K19" t="n">
         <v>103.5585226489404</v>
@@ -32405,28 +32405,28 @@
         <v>139.7229738682065</v>
       </c>
       <c r="N19" t="n">
-        <v>136.4006738458227</v>
+        <v>136.4006738458228</v>
       </c>
       <c r="O19" t="n">
-        <v>125.9880993854245</v>
+        <v>125.9880993854246</v>
       </c>
       <c r="P19" t="n">
         <v>107.8045841409626</v>
       </c>
       <c r="Q19" t="n">
-        <v>74.63830611262831</v>
+        <v>74.63830611262834</v>
       </c>
       <c r="R19" t="n">
-        <v>40.07828270905</v>
+        <v>40.07828270905001</v>
       </c>
       <c r="S19" t="n">
-        <v>15.53377839734105</v>
+        <v>15.53377839734106</v>
       </c>
       <c r="T19" t="n">
-        <v>3.808490269561969</v>
+        <v>3.80849026956197</v>
       </c>
       <c r="U19" t="n">
-        <v>0.04861902471781244</v>
+        <v>0.04861902471781245</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,46 +32463,46 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.987109217947439</v>
+        <v>1.98710921794744</v>
       </c>
       <c r="H20" t="n">
-        <v>20.35048227830421</v>
+        <v>20.35048227830422</v>
       </c>
       <c r="I20" t="n">
-        <v>76.6080281249187</v>
+        <v>76.60802812491875</v>
       </c>
       <c r="J20" t="n">
-        <v>168.6534109867666</v>
+        <v>168.6534109867667</v>
       </c>
       <c r="K20" t="n">
-        <v>252.7677441824817</v>
+        <v>252.7677441824818</v>
       </c>
       <c r="L20" t="n">
-        <v>313.5807379112407</v>
+        <v>313.5807379112409</v>
       </c>
       <c r="M20" t="n">
-        <v>348.9189914659135</v>
+        <v>348.9189914659136</v>
       </c>
       <c r="N20" t="n">
-        <v>354.5648655314067</v>
+        <v>354.5648655314068</v>
       </c>
       <c r="O20" t="n">
-        <v>334.8055482454418</v>
+        <v>334.805548245442</v>
       </c>
       <c r="P20" t="n">
-        <v>285.7487894273643</v>
+        <v>285.7487894273645</v>
       </c>
       <c r="Q20" t="n">
-        <v>214.5854405596216</v>
+        <v>214.5854405596217</v>
       </c>
       <c r="R20" t="n">
-        <v>124.8227494118909</v>
+        <v>124.822749411891</v>
       </c>
       <c r="S20" t="n">
-        <v>45.28125130397731</v>
+        <v>45.28125130397733</v>
       </c>
       <c r="T20" t="n">
-        <v>8.698570601564917</v>
+        <v>8.698570601564922</v>
       </c>
       <c r="U20" t="n">
         <v>0.1589687374357951</v>
@@ -32545,46 +32545,46 @@
         <v>1.063197163168765</v>
       </c>
       <c r="H21" t="n">
-        <v>10.26824628639307</v>
+        <v>10.26824628639308</v>
       </c>
       <c r="I21" t="n">
-        <v>36.60569180208248</v>
+        <v>36.6056918020825</v>
       </c>
       <c r="J21" t="n">
-        <v>100.4488161921858</v>
+        <v>100.4488161921859</v>
       </c>
       <c r="K21" t="n">
-        <v>171.6830261244931</v>
+        <v>171.6830261244932</v>
       </c>
       <c r="L21" t="n">
         <v>230.8490156257444</v>
       </c>
       <c r="M21" t="n">
-        <v>269.389912790612</v>
+        <v>269.3899127906121</v>
       </c>
       <c r="N21" t="n">
-        <v>276.5198621874763</v>
+        <v>276.5198621874764</v>
       </c>
       <c r="O21" t="n">
-        <v>252.9616513614736</v>
+        <v>252.9616513614737</v>
       </c>
       <c r="P21" t="n">
-        <v>203.0240267107092</v>
+        <v>203.0240267107093</v>
       </c>
       <c r="Q21" t="n">
-        <v>135.7161852494023</v>
+        <v>135.7161852494024</v>
       </c>
       <c r="R21" t="n">
-        <v>66.01148702551335</v>
+        <v>66.01148702551338</v>
       </c>
       <c r="S21" t="n">
         <v>19.74842099131455</v>
       </c>
       <c r="T21" t="n">
-        <v>4.28543067084252</v>
+        <v>4.285430670842522</v>
       </c>
       <c r="U21" t="n">
-        <v>0.06994718178741877</v>
+        <v>0.06994718178741881</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,28 +32621,28 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.8913487864932267</v>
+        <v>0.8913487864932271</v>
       </c>
       <c r="H22" t="n">
-        <v>7.924901029003421</v>
+        <v>7.924901029003425</v>
       </c>
       <c r="I22" t="n">
-        <v>26.80528896108722</v>
+        <v>26.80528896108724</v>
       </c>
       <c r="J22" t="n">
-        <v>63.01835920507112</v>
+        <v>63.01835920507116</v>
       </c>
       <c r="K22" t="n">
-        <v>103.5585226489403</v>
+        <v>103.5585226489404</v>
       </c>
       <c r="L22" t="n">
-        <v>132.5192550391839</v>
+        <v>132.519255039184</v>
       </c>
       <c r="M22" t="n">
-        <v>139.7229738682064</v>
+        <v>139.7229738682065</v>
       </c>
       <c r="N22" t="n">
-        <v>136.4006738458227</v>
+        <v>136.4006738458228</v>
       </c>
       <c r="O22" t="n">
         <v>125.9880993854245</v>
@@ -32651,19 +32651,19 @@
         <v>107.8045841409626</v>
       </c>
       <c r="Q22" t="n">
-        <v>74.63830611262829</v>
+        <v>74.63830611262833</v>
       </c>
       <c r="R22" t="n">
-        <v>40.07828270904999</v>
+        <v>40.07828270905</v>
       </c>
       <c r="S22" t="n">
         <v>15.53377839734105</v>
       </c>
       <c r="T22" t="n">
-        <v>3.808490269561968</v>
+        <v>3.80849026956197</v>
       </c>
       <c r="U22" t="n">
-        <v>0.04861902471781242</v>
+        <v>0.04861902471781245</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,46 +32700,46 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.987109217947439</v>
+        <v>1.98710921794744</v>
       </c>
       <c r="H23" t="n">
-        <v>20.35048227830421</v>
+        <v>20.35048227830422</v>
       </c>
       <c r="I23" t="n">
-        <v>76.6080281249187</v>
+        <v>76.60802812491875</v>
       </c>
       <c r="J23" t="n">
-        <v>168.6534109867666</v>
+        <v>168.6534109867667</v>
       </c>
       <c r="K23" t="n">
-        <v>252.7677441824817</v>
+        <v>252.7677441824818</v>
       </c>
       <c r="L23" t="n">
-        <v>313.5807379112407</v>
+        <v>313.5807379112409</v>
       </c>
       <c r="M23" t="n">
-        <v>348.9189914659135</v>
+        <v>348.9189914659136</v>
       </c>
       <c r="N23" t="n">
-        <v>354.5648655314067</v>
+        <v>354.5648655314068</v>
       </c>
       <c r="O23" t="n">
-        <v>334.8055482454418</v>
+        <v>334.805548245442</v>
       </c>
       <c r="P23" t="n">
-        <v>285.7487894273643</v>
+        <v>285.7487894273645</v>
       </c>
       <c r="Q23" t="n">
-        <v>214.5854405596216</v>
+        <v>214.5854405596217</v>
       </c>
       <c r="R23" t="n">
-        <v>124.8227494118909</v>
+        <v>124.822749411891</v>
       </c>
       <c r="S23" t="n">
-        <v>45.28125130397731</v>
+        <v>45.28125130397733</v>
       </c>
       <c r="T23" t="n">
-        <v>8.698570601564917</v>
+        <v>8.698570601564922</v>
       </c>
       <c r="U23" t="n">
         <v>0.1589687374357951</v>
@@ -32782,46 +32782,46 @@
         <v>1.063197163168765</v>
       </c>
       <c r="H24" t="n">
-        <v>10.26824628639307</v>
+        <v>10.26824628639308</v>
       </c>
       <c r="I24" t="n">
-        <v>36.60569180208248</v>
+        <v>36.6056918020825</v>
       </c>
       <c r="J24" t="n">
-        <v>100.4488161921858</v>
+        <v>100.4488161921859</v>
       </c>
       <c r="K24" t="n">
-        <v>171.6830261244931</v>
+        <v>171.6830261244932</v>
       </c>
       <c r="L24" t="n">
         <v>230.8490156257444</v>
       </c>
       <c r="M24" t="n">
-        <v>269.389912790612</v>
+        <v>269.3899127906121</v>
       </c>
       <c r="N24" t="n">
-        <v>276.5198621874763</v>
+        <v>276.5198621874764</v>
       </c>
       <c r="O24" t="n">
-        <v>252.9616513614736</v>
+        <v>252.9616513614737</v>
       </c>
       <c r="P24" t="n">
-        <v>203.0240267107092</v>
+        <v>203.0240267107093</v>
       </c>
       <c r="Q24" t="n">
-        <v>135.7161852494023</v>
+        <v>135.7161852494024</v>
       </c>
       <c r="R24" t="n">
-        <v>66.01148702551335</v>
+        <v>66.01148702551338</v>
       </c>
       <c r="S24" t="n">
         <v>19.74842099131455</v>
       </c>
       <c r="T24" t="n">
-        <v>4.28543067084252</v>
+        <v>4.285430670842522</v>
       </c>
       <c r="U24" t="n">
-        <v>0.06994718178741877</v>
+        <v>0.06994718178741881</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,28 +32858,28 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.8913487864932267</v>
+        <v>0.8913487864932271</v>
       </c>
       <c r="H25" t="n">
-        <v>7.924901029003421</v>
+        <v>7.924901029003425</v>
       </c>
       <c r="I25" t="n">
-        <v>26.80528896108722</v>
+        <v>26.80528896108724</v>
       </c>
       <c r="J25" t="n">
-        <v>63.01835920507112</v>
+        <v>63.01835920507116</v>
       </c>
       <c r="K25" t="n">
-        <v>103.5585226489403</v>
+        <v>103.5585226489404</v>
       </c>
       <c r="L25" t="n">
-        <v>132.5192550391839</v>
+        <v>132.519255039184</v>
       </c>
       <c r="M25" t="n">
-        <v>139.7229738682064</v>
+        <v>139.7229738682065</v>
       </c>
       <c r="N25" t="n">
-        <v>136.4006738458227</v>
+        <v>136.4006738458228</v>
       </c>
       <c r="O25" t="n">
         <v>125.9880993854245</v>
@@ -32888,19 +32888,19 @@
         <v>107.8045841409626</v>
       </c>
       <c r="Q25" t="n">
-        <v>74.63830611262829</v>
+        <v>74.63830611262833</v>
       </c>
       <c r="R25" t="n">
-        <v>40.07828270904999</v>
+        <v>40.07828270905</v>
       </c>
       <c r="S25" t="n">
         <v>15.53377839734105</v>
       </c>
       <c r="T25" t="n">
-        <v>3.808490269561968</v>
+        <v>3.80849026956197</v>
       </c>
       <c r="U25" t="n">
-        <v>0.04861902471781242</v>
+        <v>0.04861902471781245</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,46 +32937,46 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.987109217947439</v>
+        <v>1.98710921794744</v>
       </c>
       <c r="H26" t="n">
-        <v>20.35048227830421</v>
+        <v>20.35048227830422</v>
       </c>
       <c r="I26" t="n">
-        <v>76.6080281249187</v>
+        <v>76.60802812491875</v>
       </c>
       <c r="J26" t="n">
-        <v>168.6534109867666</v>
+        <v>168.6534109867667</v>
       </c>
       <c r="K26" t="n">
-        <v>252.7677441824817</v>
+        <v>252.7677441824818</v>
       </c>
       <c r="L26" t="n">
-        <v>313.5807379112407</v>
+        <v>313.5807379112409</v>
       </c>
       <c r="M26" t="n">
-        <v>348.9189914659135</v>
+        <v>348.9189914659136</v>
       </c>
       <c r="N26" t="n">
-        <v>354.5648655314067</v>
+        <v>354.5648655314068</v>
       </c>
       <c r="O26" t="n">
-        <v>334.8055482454418</v>
+        <v>334.805548245442</v>
       </c>
       <c r="P26" t="n">
-        <v>285.7487894273643</v>
+        <v>285.7487894273645</v>
       </c>
       <c r="Q26" t="n">
-        <v>214.5854405596216</v>
+        <v>214.5854405596217</v>
       </c>
       <c r="R26" t="n">
-        <v>124.8227494118909</v>
+        <v>124.822749411891</v>
       </c>
       <c r="S26" t="n">
-        <v>45.28125130397731</v>
+        <v>45.28125130397733</v>
       </c>
       <c r="T26" t="n">
-        <v>8.698570601564917</v>
+        <v>8.698570601564922</v>
       </c>
       <c r="U26" t="n">
         <v>0.1589687374357951</v>
@@ -33019,46 +33019,46 @@
         <v>1.063197163168765</v>
       </c>
       <c r="H27" t="n">
-        <v>10.26824628639307</v>
+        <v>10.26824628639308</v>
       </c>
       <c r="I27" t="n">
-        <v>36.60569180208248</v>
+        <v>36.6056918020825</v>
       </c>
       <c r="J27" t="n">
-        <v>100.4488161921858</v>
+        <v>100.4488161921859</v>
       </c>
       <c r="K27" t="n">
-        <v>171.6830261244931</v>
+        <v>171.6830261244932</v>
       </c>
       <c r="L27" t="n">
         <v>230.8490156257444</v>
       </c>
       <c r="M27" t="n">
-        <v>269.389912790612</v>
+        <v>269.3899127906121</v>
       </c>
       <c r="N27" t="n">
-        <v>276.5198621874763</v>
+        <v>276.5198621874764</v>
       </c>
       <c r="O27" t="n">
-        <v>252.9616513614736</v>
+        <v>252.9616513614737</v>
       </c>
       <c r="P27" t="n">
-        <v>203.0240267107092</v>
+        <v>203.0240267107093</v>
       </c>
       <c r="Q27" t="n">
-        <v>135.7161852494023</v>
+        <v>135.7161852494024</v>
       </c>
       <c r="R27" t="n">
-        <v>66.01148702551335</v>
+        <v>66.01148702551338</v>
       </c>
       <c r="S27" t="n">
         <v>19.74842099131455</v>
       </c>
       <c r="T27" t="n">
-        <v>4.28543067084252</v>
+        <v>4.285430670842522</v>
       </c>
       <c r="U27" t="n">
-        <v>0.06994718178741877</v>
+        <v>0.06994718178741881</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,28 +33095,28 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.8913487864932267</v>
+        <v>0.8913487864932271</v>
       </c>
       <c r="H28" t="n">
-        <v>7.924901029003421</v>
+        <v>7.924901029003425</v>
       </c>
       <c r="I28" t="n">
-        <v>26.80528896108722</v>
+        <v>26.80528896108724</v>
       </c>
       <c r="J28" t="n">
-        <v>63.01835920507112</v>
+        <v>63.01835920507116</v>
       </c>
       <c r="K28" t="n">
-        <v>103.5585226489403</v>
+        <v>103.5585226489404</v>
       </c>
       <c r="L28" t="n">
-        <v>132.5192550391839</v>
+        <v>132.519255039184</v>
       </c>
       <c r="M28" t="n">
-        <v>139.7229738682064</v>
+        <v>139.7229738682065</v>
       </c>
       <c r="N28" t="n">
-        <v>136.4006738458227</v>
+        <v>136.4006738458228</v>
       </c>
       <c r="O28" t="n">
         <v>125.9880993854245</v>
@@ -33125,19 +33125,19 @@
         <v>107.8045841409626</v>
       </c>
       <c r="Q28" t="n">
-        <v>74.63830611262829</v>
+        <v>74.63830611262833</v>
       </c>
       <c r="R28" t="n">
-        <v>40.07828270904999</v>
+        <v>40.07828270905</v>
       </c>
       <c r="S28" t="n">
         <v>15.53377839734105</v>
       </c>
       <c r="T28" t="n">
-        <v>3.808490269561968</v>
+        <v>3.80849026956197</v>
       </c>
       <c r="U28" t="n">
-        <v>0.04861902471781242</v>
+        <v>0.04861902471781245</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,46 +33174,46 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.987109217947439</v>
+        <v>1.98710921794744</v>
       </c>
       <c r="H29" t="n">
-        <v>20.35048227830421</v>
+        <v>20.35048227830422</v>
       </c>
       <c r="I29" t="n">
-        <v>76.6080281249187</v>
+        <v>76.60802812491875</v>
       </c>
       <c r="J29" t="n">
-        <v>168.6534109867666</v>
+        <v>168.6534109867667</v>
       </c>
       <c r="K29" t="n">
-        <v>252.7677441824817</v>
+        <v>252.7677441824818</v>
       </c>
       <c r="L29" t="n">
-        <v>313.5807379112407</v>
+        <v>313.5807379112409</v>
       </c>
       <c r="M29" t="n">
-        <v>348.9189914659135</v>
+        <v>348.9189914659136</v>
       </c>
       <c r="N29" t="n">
-        <v>354.5648655314067</v>
+        <v>354.5648655314068</v>
       </c>
       <c r="O29" t="n">
-        <v>334.8055482454418</v>
+        <v>334.805548245442</v>
       </c>
       <c r="P29" t="n">
-        <v>285.7487894273643</v>
+        <v>285.7487894273645</v>
       </c>
       <c r="Q29" t="n">
-        <v>214.5854405596216</v>
+        <v>214.5854405596217</v>
       </c>
       <c r="R29" t="n">
-        <v>124.8227494118909</v>
+        <v>124.822749411891</v>
       </c>
       <c r="S29" t="n">
-        <v>45.28125130397731</v>
+        <v>45.28125130397733</v>
       </c>
       <c r="T29" t="n">
-        <v>8.698570601564917</v>
+        <v>8.698570601564922</v>
       </c>
       <c r="U29" t="n">
         <v>0.1589687374357951</v>
@@ -33256,46 +33256,46 @@
         <v>1.063197163168765</v>
       </c>
       <c r="H30" t="n">
-        <v>10.26824628639307</v>
+        <v>10.26824628639308</v>
       </c>
       <c r="I30" t="n">
-        <v>36.60569180208248</v>
+        <v>36.6056918020825</v>
       </c>
       <c r="J30" t="n">
-        <v>100.4488161921858</v>
+        <v>100.4488161921859</v>
       </c>
       <c r="K30" t="n">
-        <v>171.6830261244931</v>
+        <v>171.6830261244932</v>
       </c>
       <c r="L30" t="n">
         <v>230.8490156257444</v>
       </c>
       <c r="M30" t="n">
-        <v>269.389912790612</v>
+        <v>269.3899127906121</v>
       </c>
       <c r="N30" t="n">
-        <v>276.5198621874763</v>
+        <v>276.5198621874764</v>
       </c>
       <c r="O30" t="n">
-        <v>252.9616513614736</v>
+        <v>252.9616513614737</v>
       </c>
       <c r="P30" t="n">
-        <v>203.0240267107092</v>
+        <v>203.0240267107093</v>
       </c>
       <c r="Q30" t="n">
-        <v>135.7161852494023</v>
+        <v>135.7161852494024</v>
       </c>
       <c r="R30" t="n">
-        <v>66.01148702551335</v>
+        <v>66.01148702551338</v>
       </c>
       <c r="S30" t="n">
         <v>19.74842099131455</v>
       </c>
       <c r="T30" t="n">
-        <v>4.28543067084252</v>
+        <v>4.285430670842522</v>
       </c>
       <c r="U30" t="n">
-        <v>0.06994718178741877</v>
+        <v>0.06994718178741881</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,28 +33332,28 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.8913487864932267</v>
+        <v>0.8913487864932271</v>
       </c>
       <c r="H31" t="n">
-        <v>7.924901029003421</v>
+        <v>7.924901029003425</v>
       </c>
       <c r="I31" t="n">
-        <v>26.80528896108722</v>
+        <v>26.80528896108724</v>
       </c>
       <c r="J31" t="n">
-        <v>63.01835920507112</v>
+        <v>63.01835920507116</v>
       </c>
       <c r="K31" t="n">
-        <v>103.5585226489403</v>
+        <v>103.5585226489404</v>
       </c>
       <c r="L31" t="n">
-        <v>132.5192550391839</v>
+        <v>132.519255039184</v>
       </c>
       <c r="M31" t="n">
-        <v>139.7229738682064</v>
+        <v>139.7229738682065</v>
       </c>
       <c r="N31" t="n">
-        <v>136.4006738458227</v>
+        <v>136.4006738458228</v>
       </c>
       <c r="O31" t="n">
         <v>125.9880993854245</v>
@@ -33362,19 +33362,19 @@
         <v>107.8045841409626</v>
       </c>
       <c r="Q31" t="n">
-        <v>74.63830611262829</v>
+        <v>74.63830611262833</v>
       </c>
       <c r="R31" t="n">
-        <v>40.07828270904999</v>
+        <v>40.07828270905</v>
       </c>
       <c r="S31" t="n">
         <v>15.53377839734105</v>
       </c>
       <c r="T31" t="n">
-        <v>3.808490269561968</v>
+        <v>3.80849026956197</v>
       </c>
       <c r="U31" t="n">
-        <v>0.04861902471781242</v>
+        <v>0.04861902471781245</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,46 +33411,46 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.987109217947439</v>
+        <v>1.98710921794744</v>
       </c>
       <c r="H32" t="n">
-        <v>20.35048227830421</v>
+        <v>20.35048227830422</v>
       </c>
       <c r="I32" t="n">
-        <v>76.6080281249187</v>
+        <v>76.60802812491875</v>
       </c>
       <c r="J32" t="n">
-        <v>168.6534109867666</v>
+        <v>168.6534109867667</v>
       </c>
       <c r="K32" t="n">
-        <v>252.7677441824817</v>
+        <v>252.7677441824818</v>
       </c>
       <c r="L32" t="n">
-        <v>313.5807379112407</v>
+        <v>313.5807379112409</v>
       </c>
       <c r="M32" t="n">
-        <v>348.9189914659135</v>
+        <v>348.9189914659136</v>
       </c>
       <c r="N32" t="n">
-        <v>354.5648655314067</v>
+        <v>354.5648655314068</v>
       </c>
       <c r="O32" t="n">
-        <v>334.8055482454418</v>
+        <v>334.805548245442</v>
       </c>
       <c r="P32" t="n">
-        <v>285.7487894273643</v>
+        <v>285.7487894273645</v>
       </c>
       <c r="Q32" t="n">
-        <v>214.5854405596216</v>
+        <v>214.5854405596217</v>
       </c>
       <c r="R32" t="n">
-        <v>124.8227494118909</v>
+        <v>124.822749411891</v>
       </c>
       <c r="S32" t="n">
-        <v>45.28125130397731</v>
+        <v>45.28125130397733</v>
       </c>
       <c r="T32" t="n">
-        <v>8.698570601564917</v>
+        <v>8.698570601564922</v>
       </c>
       <c r="U32" t="n">
         <v>0.1589687374357951</v>
@@ -33493,46 +33493,46 @@
         <v>1.063197163168765</v>
       </c>
       <c r="H33" t="n">
-        <v>10.26824628639307</v>
+        <v>10.26824628639308</v>
       </c>
       <c r="I33" t="n">
-        <v>36.60569180208248</v>
+        <v>36.6056918020825</v>
       </c>
       <c r="J33" t="n">
-        <v>100.4488161921858</v>
+        <v>100.4488161921859</v>
       </c>
       <c r="K33" t="n">
-        <v>171.6830261244931</v>
+        <v>171.6830261244932</v>
       </c>
       <c r="L33" t="n">
         <v>230.8490156257444</v>
       </c>
       <c r="M33" t="n">
-        <v>269.389912790612</v>
+        <v>269.3899127906121</v>
       </c>
       <c r="N33" t="n">
-        <v>276.5198621874763</v>
+        <v>276.5198621874764</v>
       </c>
       <c r="O33" t="n">
-        <v>252.9616513614736</v>
+        <v>252.9616513614737</v>
       </c>
       <c r="P33" t="n">
-        <v>203.0240267107092</v>
+        <v>203.0240267107093</v>
       </c>
       <c r="Q33" t="n">
-        <v>135.7161852494023</v>
+        <v>135.7161852494024</v>
       </c>
       <c r="R33" t="n">
-        <v>66.01148702551335</v>
+        <v>66.01148702551338</v>
       </c>
       <c r="S33" t="n">
         <v>19.74842099131455</v>
       </c>
       <c r="T33" t="n">
-        <v>4.28543067084252</v>
+        <v>4.285430670842522</v>
       </c>
       <c r="U33" t="n">
-        <v>0.06994718178741877</v>
+        <v>0.06994718178741881</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,28 +33569,28 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8913487864932267</v>
+        <v>0.8913487864932271</v>
       </c>
       <c r="H34" t="n">
-        <v>7.924901029003421</v>
+        <v>7.924901029003425</v>
       </c>
       <c r="I34" t="n">
-        <v>26.80528896108722</v>
+        <v>26.80528896108724</v>
       </c>
       <c r="J34" t="n">
-        <v>63.01835920507112</v>
+        <v>63.01835920507116</v>
       </c>
       <c r="K34" t="n">
-        <v>103.5585226489403</v>
+        <v>103.5585226489404</v>
       </c>
       <c r="L34" t="n">
-        <v>132.5192550391839</v>
+        <v>132.519255039184</v>
       </c>
       <c r="M34" t="n">
-        <v>139.7229738682064</v>
+        <v>139.7229738682065</v>
       </c>
       <c r="N34" t="n">
-        <v>136.4006738458227</v>
+        <v>136.4006738458228</v>
       </c>
       <c r="O34" t="n">
         <v>125.9880993854245</v>
@@ -33599,19 +33599,19 @@
         <v>107.8045841409626</v>
       </c>
       <c r="Q34" t="n">
-        <v>74.63830611262829</v>
+        <v>74.63830611262833</v>
       </c>
       <c r="R34" t="n">
-        <v>40.07828270904999</v>
+        <v>40.07828270905</v>
       </c>
       <c r="S34" t="n">
         <v>15.53377839734105</v>
       </c>
       <c r="T34" t="n">
-        <v>3.808490269561968</v>
+        <v>3.80849026956197</v>
       </c>
       <c r="U34" t="n">
-        <v>0.04861902471781242</v>
+        <v>0.04861902471781245</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,46 +33648,46 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.987109217947439</v>
+        <v>1.98710921794744</v>
       </c>
       <c r="H35" t="n">
-        <v>20.35048227830421</v>
+        <v>20.35048227830422</v>
       </c>
       <c r="I35" t="n">
-        <v>76.6080281249187</v>
+        <v>76.60802812491875</v>
       </c>
       <c r="J35" t="n">
-        <v>168.6534109867666</v>
+        <v>168.6534109867667</v>
       </c>
       <c r="K35" t="n">
-        <v>252.7677441824817</v>
+        <v>252.7677441824818</v>
       </c>
       <c r="L35" t="n">
-        <v>313.5807379112407</v>
+        <v>313.5807379112409</v>
       </c>
       <c r="M35" t="n">
-        <v>348.9189914659135</v>
+        <v>348.9189914659136</v>
       </c>
       <c r="N35" t="n">
-        <v>354.5648655314067</v>
+        <v>354.5648655314068</v>
       </c>
       <c r="O35" t="n">
-        <v>334.8055482454418</v>
+        <v>334.805548245442</v>
       </c>
       <c r="P35" t="n">
-        <v>285.7487894273643</v>
+        <v>285.7487894273645</v>
       </c>
       <c r="Q35" t="n">
-        <v>214.5854405596216</v>
+        <v>214.5854405596217</v>
       </c>
       <c r="R35" t="n">
-        <v>124.8227494118909</v>
+        <v>124.822749411891</v>
       </c>
       <c r="S35" t="n">
-        <v>45.28125130397731</v>
+        <v>45.28125130397733</v>
       </c>
       <c r="T35" t="n">
-        <v>8.698570601564917</v>
+        <v>8.698570601564922</v>
       </c>
       <c r="U35" t="n">
         <v>0.1589687374357951</v>
@@ -33730,46 +33730,46 @@
         <v>1.063197163168765</v>
       </c>
       <c r="H36" t="n">
-        <v>10.26824628639307</v>
+        <v>10.26824628639308</v>
       </c>
       <c r="I36" t="n">
-        <v>36.60569180208248</v>
+        <v>36.6056918020825</v>
       </c>
       <c r="J36" t="n">
-        <v>100.4488161921858</v>
+        <v>100.4488161921859</v>
       </c>
       <c r="K36" t="n">
-        <v>171.6830261244931</v>
+        <v>171.6830261244932</v>
       </c>
       <c r="L36" t="n">
         <v>230.8490156257444</v>
       </c>
       <c r="M36" t="n">
-        <v>269.389912790612</v>
+        <v>269.3899127906121</v>
       </c>
       <c r="N36" t="n">
-        <v>276.5198621874763</v>
+        <v>276.5198621874764</v>
       </c>
       <c r="O36" t="n">
-        <v>252.9616513614736</v>
+        <v>252.9616513614737</v>
       </c>
       <c r="P36" t="n">
-        <v>203.0240267107092</v>
+        <v>203.0240267107093</v>
       </c>
       <c r="Q36" t="n">
-        <v>135.7161852494023</v>
+        <v>135.7161852494024</v>
       </c>
       <c r="R36" t="n">
-        <v>66.01148702551335</v>
+        <v>66.01148702551338</v>
       </c>
       <c r="S36" t="n">
         <v>19.74842099131455</v>
       </c>
       <c r="T36" t="n">
-        <v>4.28543067084252</v>
+        <v>4.285430670842522</v>
       </c>
       <c r="U36" t="n">
-        <v>0.06994718178741877</v>
+        <v>0.06994718178741881</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,28 +33806,28 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8913487864932267</v>
+        <v>0.8913487864932271</v>
       </c>
       <c r="H37" t="n">
-        <v>7.924901029003421</v>
+        <v>7.924901029003425</v>
       </c>
       <c r="I37" t="n">
-        <v>26.80528896108722</v>
+        <v>26.80528896108724</v>
       </c>
       <c r="J37" t="n">
-        <v>63.01835920507112</v>
+        <v>63.01835920507116</v>
       </c>
       <c r="K37" t="n">
-        <v>103.5585226489403</v>
+        <v>103.5585226489404</v>
       </c>
       <c r="L37" t="n">
-        <v>132.5192550391839</v>
+        <v>132.519255039184</v>
       </c>
       <c r="M37" t="n">
-        <v>139.7229738682064</v>
+        <v>139.7229738682065</v>
       </c>
       <c r="N37" t="n">
-        <v>136.4006738458227</v>
+        <v>136.4006738458228</v>
       </c>
       <c r="O37" t="n">
         <v>125.9880993854245</v>
@@ -33836,19 +33836,19 @@
         <v>107.8045841409626</v>
       </c>
       <c r="Q37" t="n">
-        <v>74.63830611262829</v>
+        <v>74.63830611262833</v>
       </c>
       <c r="R37" t="n">
-        <v>40.07828270904999</v>
+        <v>40.07828270905</v>
       </c>
       <c r="S37" t="n">
         <v>15.53377839734105</v>
       </c>
       <c r="T37" t="n">
-        <v>3.808490269561968</v>
+        <v>3.80849026956197</v>
       </c>
       <c r="U37" t="n">
-        <v>0.04861902471781242</v>
+        <v>0.04861902471781245</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,46 +33885,46 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.987109217947439</v>
+        <v>1.98710921794744</v>
       </c>
       <c r="H38" t="n">
-        <v>20.35048227830421</v>
+        <v>20.35048227830422</v>
       </c>
       <c r="I38" t="n">
-        <v>76.6080281249187</v>
+        <v>76.60802812491875</v>
       </c>
       <c r="J38" t="n">
-        <v>168.6534109867666</v>
+        <v>168.6534109867667</v>
       </c>
       <c r="K38" t="n">
-        <v>252.7677441824817</v>
+        <v>252.7677441824818</v>
       </c>
       <c r="L38" t="n">
-        <v>313.5807379112407</v>
+        <v>313.5807379112409</v>
       </c>
       <c r="M38" t="n">
-        <v>348.9189914659135</v>
+        <v>348.9189914659136</v>
       </c>
       <c r="N38" t="n">
-        <v>354.5648655314067</v>
+        <v>354.5648655314068</v>
       </c>
       <c r="O38" t="n">
-        <v>334.8055482454418</v>
+        <v>334.805548245442</v>
       </c>
       <c r="P38" t="n">
-        <v>285.7487894273643</v>
+        <v>285.7487894273645</v>
       </c>
       <c r="Q38" t="n">
-        <v>214.5854405596216</v>
+        <v>214.5854405596217</v>
       </c>
       <c r="R38" t="n">
-        <v>124.8227494118909</v>
+        <v>124.822749411891</v>
       </c>
       <c r="S38" t="n">
-        <v>45.28125130397731</v>
+        <v>45.28125130397733</v>
       </c>
       <c r="T38" t="n">
-        <v>8.698570601564917</v>
+        <v>8.698570601564922</v>
       </c>
       <c r="U38" t="n">
         <v>0.1589687374357951</v>
@@ -33967,46 +33967,46 @@
         <v>1.063197163168765</v>
       </c>
       <c r="H39" t="n">
-        <v>10.26824628639307</v>
+        <v>10.26824628639308</v>
       </c>
       <c r="I39" t="n">
-        <v>36.60569180208248</v>
+        <v>36.6056918020825</v>
       </c>
       <c r="J39" t="n">
-        <v>100.4488161921858</v>
+        <v>100.4488161921859</v>
       </c>
       <c r="K39" t="n">
-        <v>171.6830261244931</v>
+        <v>171.6830261244932</v>
       </c>
       <c r="L39" t="n">
         <v>230.8490156257444</v>
       </c>
       <c r="M39" t="n">
-        <v>269.389912790612</v>
+        <v>269.3899127906121</v>
       </c>
       <c r="N39" t="n">
-        <v>276.5198621874763</v>
+        <v>276.5198621874764</v>
       </c>
       <c r="O39" t="n">
-        <v>252.9616513614736</v>
+        <v>252.9616513614737</v>
       </c>
       <c r="P39" t="n">
-        <v>203.0240267107092</v>
+        <v>203.0240267107093</v>
       </c>
       <c r="Q39" t="n">
-        <v>135.7161852494023</v>
+        <v>135.7161852494024</v>
       </c>
       <c r="R39" t="n">
-        <v>66.01148702551335</v>
+        <v>66.01148702551338</v>
       </c>
       <c r="S39" t="n">
         <v>19.74842099131455</v>
       </c>
       <c r="T39" t="n">
-        <v>4.28543067084252</v>
+        <v>4.285430670842522</v>
       </c>
       <c r="U39" t="n">
-        <v>0.06994718178741877</v>
+        <v>0.06994718178741881</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,28 +34043,28 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.8913487864932267</v>
+        <v>0.8913487864932271</v>
       </c>
       <c r="H40" t="n">
-        <v>7.924901029003421</v>
+        <v>7.924901029003425</v>
       </c>
       <c r="I40" t="n">
-        <v>26.80528896108722</v>
+        <v>26.80528896108724</v>
       </c>
       <c r="J40" t="n">
-        <v>63.01835920507112</v>
+        <v>63.01835920507116</v>
       </c>
       <c r="K40" t="n">
-        <v>103.5585226489403</v>
+        <v>103.5585226489404</v>
       </c>
       <c r="L40" t="n">
-        <v>132.5192550391839</v>
+        <v>132.519255039184</v>
       </c>
       <c r="M40" t="n">
-        <v>139.7229738682064</v>
+        <v>139.7229738682065</v>
       </c>
       <c r="N40" t="n">
-        <v>136.4006738458227</v>
+        <v>136.4006738458228</v>
       </c>
       <c r="O40" t="n">
         <v>125.9880993854245</v>
@@ -34073,19 +34073,19 @@
         <v>107.8045841409626</v>
       </c>
       <c r="Q40" t="n">
-        <v>74.63830611262829</v>
+        <v>74.63830611262833</v>
       </c>
       <c r="R40" t="n">
-        <v>40.07828270904999</v>
+        <v>40.07828270905</v>
       </c>
       <c r="S40" t="n">
         <v>15.53377839734105</v>
       </c>
       <c r="T40" t="n">
-        <v>3.808490269561968</v>
+        <v>3.80849026956197</v>
       </c>
       <c r="U40" t="n">
-        <v>0.04861902471781242</v>
+        <v>0.04861902471781245</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34125,19 +34125,19 @@
         <v>1.987109217947439</v>
       </c>
       <c r="H41" t="n">
-        <v>20.35048227830421</v>
+        <v>20.35048227830422</v>
       </c>
       <c r="I41" t="n">
-        <v>76.6080281249187</v>
+        <v>76.60802812491872</v>
       </c>
       <c r="J41" t="n">
-        <v>168.6534109867663</v>
+        <v>168.6534109867666</v>
       </c>
       <c r="K41" t="n">
-        <v>252.7677441824817</v>
+        <v>252.767744182482</v>
       </c>
       <c r="L41" t="n">
-        <v>313.5807379112407</v>
+        <v>313.5807379112408</v>
       </c>
       <c r="M41" t="n">
         <v>348.9189914659135</v>
@@ -34149,7 +34149,7 @@
         <v>334.8055482454418</v>
       </c>
       <c r="P41" t="n">
-        <v>285.7487894273643</v>
+        <v>285.7487894273644</v>
       </c>
       <c r="Q41" t="n">
         <v>214.5854405596216</v>
@@ -34161,7 +34161,7 @@
         <v>45.28125130397731</v>
       </c>
       <c r="T41" t="n">
-        <v>8.698570601564917</v>
+        <v>8.698570601564919</v>
       </c>
       <c r="U41" t="n">
         <v>0.1589687374357951</v>
@@ -34225,13 +34225,13 @@
         <v>276.5198621874763</v>
       </c>
       <c r="O42" t="n">
-        <v>252.9616513614736</v>
+        <v>252.9616513614737</v>
       </c>
       <c r="P42" t="n">
         <v>203.0240267107092</v>
       </c>
       <c r="Q42" t="n">
-        <v>135.7161852494023</v>
+        <v>135.7161852494024</v>
       </c>
       <c r="R42" t="n">
         <v>66.01148702551335</v>
@@ -34240,10 +34240,10 @@
         <v>19.74842099131455</v>
       </c>
       <c r="T42" t="n">
-        <v>4.28543067084252</v>
+        <v>4.285430670842521</v>
       </c>
       <c r="U42" t="n">
-        <v>0.06994718178741877</v>
+        <v>0.06994718178741878</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,16 +34280,16 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.8913487864932267</v>
+        <v>0.8913487864932268</v>
       </c>
       <c r="H43" t="n">
-        <v>7.924901029003421</v>
+        <v>7.924901029003422</v>
       </c>
       <c r="I43" t="n">
-        <v>26.80528896108722</v>
+        <v>26.80528896108723</v>
       </c>
       <c r="J43" t="n">
-        <v>63.01835920507112</v>
+        <v>63.01835920507113</v>
       </c>
       <c r="K43" t="n">
         <v>103.5585226489403</v>
@@ -34310,7 +34310,7 @@
         <v>107.8045841409626</v>
       </c>
       <c r="Q43" t="n">
-        <v>74.63830611262829</v>
+        <v>74.6383061126283</v>
       </c>
       <c r="R43" t="n">
         <v>40.07828270904999</v>
@@ -34362,10 +34362,10 @@
         <v>1.987109217947439</v>
       </c>
       <c r="H44" t="n">
-        <v>20.35048227830421</v>
+        <v>20.35048227830422</v>
       </c>
       <c r="I44" t="n">
-        <v>76.6080281249187</v>
+        <v>76.60802812491872</v>
       </c>
       <c r="J44" t="n">
         <v>168.6534109867666</v>
@@ -34374,7 +34374,7 @@
         <v>252.7677441824817</v>
       </c>
       <c r="L44" t="n">
-        <v>313.5807379112407</v>
+        <v>313.5807379112408</v>
       </c>
       <c r="M44" t="n">
         <v>348.9189914659135</v>
@@ -34386,7 +34386,7 @@
         <v>334.8055482454418</v>
       </c>
       <c r="P44" t="n">
-        <v>285.7487894273643</v>
+        <v>285.7487894273644</v>
       </c>
       <c r="Q44" t="n">
         <v>214.5854405596216</v>
@@ -34398,7 +34398,7 @@
         <v>45.28125130397731</v>
       </c>
       <c r="T44" t="n">
-        <v>8.698570601564917</v>
+        <v>8.698570601564919</v>
       </c>
       <c r="U44" t="n">
         <v>0.1589687374357951</v>
@@ -34462,13 +34462,13 @@
         <v>276.5198621874763</v>
       </c>
       <c r="O45" t="n">
-        <v>252.9616513614736</v>
+        <v>252.9616513614737</v>
       </c>
       <c r="P45" t="n">
         <v>203.0240267107092</v>
       </c>
       <c r="Q45" t="n">
-        <v>135.7161852494023</v>
+        <v>135.7161852494024</v>
       </c>
       <c r="R45" t="n">
         <v>66.01148702551335</v>
@@ -34477,10 +34477,10 @@
         <v>19.74842099131455</v>
       </c>
       <c r="T45" t="n">
-        <v>4.28543067084252</v>
+        <v>4.285430670842521</v>
       </c>
       <c r="U45" t="n">
-        <v>0.06994718178741877</v>
+        <v>0.06994718178741878</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,16 +34517,16 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.8913487864932267</v>
+        <v>0.8913487864932268</v>
       </c>
       <c r="H46" t="n">
-        <v>7.924901029003421</v>
+        <v>7.924901029003422</v>
       </c>
       <c r="I46" t="n">
-        <v>26.80528896108722</v>
+        <v>26.80528896108723</v>
       </c>
       <c r="J46" t="n">
-        <v>63.01835920507112</v>
+        <v>63.01835920507113</v>
       </c>
       <c r="K46" t="n">
         <v>103.5585226489403</v>
@@ -34547,7 +34547,7 @@
         <v>107.8045841409626</v>
       </c>
       <c r="Q46" t="n">
-        <v>74.63830611262829</v>
+        <v>74.6383061126283</v>
       </c>
       <c r="R46" t="n">
         <v>40.07828270904999</v>
@@ -35409,7 +35409,7 @@
         <v>42.06012558095524</v>
       </c>
       <c r="J11" t="n">
-        <v>139.2334515011801</v>
+        <v>139.2334515011802</v>
       </c>
       <c r="K11" t="n">
         <v>217.0031433876725</v>
@@ -35433,7 +35433,7 @@
         <v>178.4607659550237</v>
       </c>
       <c r="R11" t="n">
-        <v>89.79009951709449</v>
+        <v>89.79009951709452</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,7 +35488,7 @@
         <v>44.12755337977123</v>
       </c>
       <c r="J12" t="n">
-        <v>79.83770185885254</v>
+        <v>214.7158714301863</v>
       </c>
       <c r="K12" t="n">
         <v>149.2837922911598</v>
@@ -35500,7 +35500,7 @@
         <v>246.2931322782842</v>
       </c>
       <c r="N12" t="n">
-        <v>255.1768339739347</v>
+        <v>255.1768339739348</v>
       </c>
       <c r="O12" t="n">
         <v>229.7897616392515</v>
@@ -35509,7 +35509,7 @@
         <v>181.2531855058806</v>
       </c>
       <c r="Q12" t="n">
-        <v>247.847316531758</v>
+        <v>112.9691469604239</v>
       </c>
       <c r="R12" t="n">
         <v>148.85927498986</v>
@@ -35567,25 +35567,25 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>42.38160322116929</v>
+        <v>42.3816032211693</v>
       </c>
       <c r="K13" t="n">
-        <v>82.59386819622837</v>
+        <v>82.59386819622839</v>
       </c>
       <c r="L13" t="n">
-        <v>110.6004951434828</v>
+        <v>490.7912967507201</v>
       </c>
       <c r="M13" t="n">
-        <v>426.5317761745532</v>
+        <v>534.442728698631</v>
       </c>
       <c r="N13" t="n">
         <v>517.7052302862629</v>
       </c>
       <c r="O13" t="n">
-        <v>485.006411183165</v>
+        <v>312.8200152067071</v>
       </c>
       <c r="P13" t="n">
-        <v>401.3391416378323</v>
+        <v>85.42378348297615</v>
       </c>
       <c r="Q13" t="n">
         <v>50.01874334784338</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>42.06012558095523</v>
+        <v>42.06012558095526</v>
       </c>
       <c r="J14" t="n">
-        <v>139.2334515011801</v>
+        <v>139.2334515011802</v>
       </c>
       <c r="K14" t="n">
         <v>217.0031433876725</v>
       </c>
       <c r="L14" t="n">
-        <v>275.2686954786179</v>
+        <v>275.268695478618</v>
       </c>
       <c r="M14" t="n">
-        <v>311.4877285664817</v>
+        <v>311.4877285664818</v>
       </c>
       <c r="N14" t="n">
-        <v>317.2852426969608</v>
+        <v>317.2852426969609</v>
       </c>
       <c r="O14" t="n">
-        <v>297.4145888894178</v>
+        <v>297.4145888894179</v>
       </c>
       <c r="P14" t="n">
-        <v>248.1734276171331</v>
+        <v>248.1734276171333</v>
       </c>
       <c r="Q14" t="n">
-        <v>178.4607659550236</v>
+        <v>178.4607659550238</v>
       </c>
       <c r="R14" t="n">
-        <v>89.79009951709449</v>
+        <v>89.79009951709452</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>20.43330505208249</v>
+        <v>20.4333050520825</v>
       </c>
       <c r="J15" t="n">
-        <v>79.83770185885253</v>
+        <v>79.83770185885255</v>
       </c>
       <c r="K15" t="n">
         <v>149.2837922911598</v>
       </c>
       <c r="L15" t="n">
-        <v>208.3339289115148</v>
+        <v>208.3339289115149</v>
       </c>
       <c r="M15" t="n">
         <v>246.2931322782842</v>
       </c>
       <c r="N15" t="n">
-        <v>255.1768339739347</v>
+        <v>255.1768339739348</v>
       </c>
       <c r="O15" t="n">
-        <v>229.7897616392515</v>
+        <v>229.7897616392516</v>
       </c>
       <c r="P15" t="n">
-        <v>181.2531855058806</v>
+        <v>181.2531855058807</v>
       </c>
       <c r="Q15" t="n">
-        <v>378.0622722179374</v>
+        <v>378.0622722179372</v>
       </c>
       <c r="R15" t="n">
-        <v>42.33856763136922</v>
+        <v>42.33856763136924</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>42.38160322116929</v>
+        <v>42.3816032211693</v>
       </c>
       <c r="K16" t="n">
         <v>332.3742814427153</v>
@@ -35816,16 +35816,16 @@
         <v>534.4427286986307</v>
       </c>
       <c r="N16" t="n">
-        <v>517.7052302862629</v>
+        <v>517.705230286263</v>
       </c>
       <c r="O16" t="n">
         <v>443.2304035674569</v>
       </c>
       <c r="P16" t="n">
-        <v>85.42378348297613</v>
+        <v>85.42378348297616</v>
       </c>
       <c r="Q16" t="n">
-        <v>50.01874334784337</v>
+        <v>50.0187433478434</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>42.06012558095523</v>
+        <v>42.06012558095526</v>
       </c>
       <c r="J17" t="n">
-        <v>139.2334515011801</v>
+        <v>139.2334515011802</v>
       </c>
       <c r="K17" t="n">
         <v>217.0031433876725</v>
       </c>
       <c r="L17" t="n">
-        <v>275.2686954786179</v>
+        <v>275.268695478618</v>
       </c>
       <c r="M17" t="n">
-        <v>311.4877285664817</v>
+        <v>311.4877285664818</v>
       </c>
       <c r="N17" t="n">
-        <v>317.2852426969608</v>
+        <v>317.2852426969609</v>
       </c>
       <c r="O17" t="n">
-        <v>297.4145888894178</v>
+        <v>297.4145888894179</v>
       </c>
       <c r="P17" t="n">
-        <v>248.1734276171331</v>
+        <v>248.1734276171333</v>
       </c>
       <c r="Q17" t="n">
-        <v>178.4607659550236</v>
+        <v>178.4607659550238</v>
       </c>
       <c r="R17" t="n">
-        <v>89.79009951709449</v>
+        <v>89.79009951709452</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>44.12755337977121</v>
+        <v>44.12755337977123</v>
       </c>
       <c r="J18" t="n">
-        <v>79.83770185885253</v>
+        <v>214.7158714301862</v>
       </c>
       <c r="K18" t="n">
         <v>149.2837922911598</v>
       </c>
       <c r="L18" t="n">
-        <v>208.3339289115148</v>
+        <v>208.3339289115149</v>
       </c>
       <c r="M18" t="n">
         <v>246.2931322782842</v>
       </c>
       <c r="N18" t="n">
-        <v>255.1768339739347</v>
+        <v>255.1768339739348</v>
       </c>
       <c r="O18" t="n">
-        <v>229.7897616392515</v>
+        <v>229.7897616392516</v>
       </c>
       <c r="P18" t="n">
-        <v>181.2531855058806</v>
+        <v>181.2531855058807</v>
       </c>
       <c r="Q18" t="n">
-        <v>247.8473165317582</v>
+        <v>112.969146960424</v>
       </c>
       <c r="R18" t="n">
-        <v>148.8592749898599</v>
+        <v>148.85927498986</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>121.0904079163419</v>
+        <v>42.3816032211693</v>
       </c>
       <c r="K19" t="n">
-        <v>332.3742814427153</v>
+        <v>82.59386819622839</v>
       </c>
       <c r="L19" t="n">
-        <v>110.6004951434828</v>
+        <v>490.7912967507202</v>
       </c>
       <c r="M19" t="n">
-        <v>534.4427286986305</v>
+        <v>117.1475339767207</v>
       </c>
       <c r="N19" t="n">
-        <v>462.8225591166906</v>
+        <v>517.705230286263</v>
       </c>
       <c r="O19" t="n">
-        <v>103.4889118870001</v>
+        <v>485.006411183165</v>
       </c>
       <c r="P19" t="n">
-        <v>401.3391416378323</v>
+        <v>330.5325822284277</v>
       </c>
       <c r="Q19" t="n">
-        <v>50.01874334784337</v>
+        <v>50.0187433478434</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>42.0601255809552</v>
+        <v>42.06012558095524</v>
       </c>
       <c r="J20" t="n">
-        <v>139.23345150118</v>
+        <v>139.2334515011801</v>
       </c>
       <c r="K20" t="n">
-        <v>217.0031433876724</v>
+        <v>217.0031433876725</v>
       </c>
       <c r="L20" t="n">
-        <v>275.2686954786178</v>
+        <v>275.2686954786179</v>
       </c>
       <c r="M20" t="n">
-        <v>311.4877285664816</v>
+        <v>311.4877285664818</v>
       </c>
       <c r="N20" t="n">
-        <v>317.2852426969607</v>
+        <v>317.2852426969608</v>
       </c>
       <c r="O20" t="n">
-        <v>297.4145888894177</v>
+        <v>297.4145888894179</v>
       </c>
       <c r="P20" t="n">
-        <v>248.173427617133</v>
+        <v>248.1734276171332</v>
       </c>
       <c r="Q20" t="n">
-        <v>178.4607659550236</v>
+        <v>178.4607659550237</v>
       </c>
       <c r="R20" t="n">
-        <v>89.79009951709443</v>
+        <v>89.79009951709449</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>20.43330505208248</v>
+        <v>44.12755337977123</v>
       </c>
       <c r="J21" t="n">
-        <v>79.8377018588525</v>
+        <v>214.7158714301864</v>
       </c>
       <c r="K21" t="n">
-        <v>149.2837922911597</v>
+        <v>149.2837922911598</v>
       </c>
       <c r="L21" t="n">
-        <v>208.3339289115148</v>
+        <v>208.3339289115149</v>
       </c>
       <c r="M21" t="n">
-        <v>246.293132278284</v>
+        <v>246.2931322782842</v>
       </c>
       <c r="N21" t="n">
-        <v>255.1768339739346</v>
+        <v>255.1768339739347</v>
       </c>
       <c r="O21" t="n">
-        <v>229.7897616392514</v>
+        <v>229.7897616392515</v>
       </c>
       <c r="P21" t="n">
-        <v>181.2531855058805</v>
+        <v>181.2531855058806</v>
       </c>
       <c r="Q21" t="n">
-        <v>378.0622722179381</v>
+        <v>112.9691469604239</v>
       </c>
       <c r="R21" t="n">
-        <v>42.3385676313692</v>
+        <v>148.85927498986</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,19 +36278,19 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>121.0904079163418</v>
+        <v>42.38160322116929</v>
       </c>
       <c r="K22" t="n">
-        <v>82.59386819622831</v>
+        <v>82.59386819622837</v>
       </c>
       <c r="L22" t="n">
-        <v>173.131672736335</v>
+        <v>419.9847373413157</v>
       </c>
       <c r="M22" t="n">
-        <v>534.4427286986305</v>
+        <v>117.1475339767207</v>
       </c>
       <c r="N22" t="n">
-        <v>115.6517728702223</v>
+        <v>517.7052302862629</v>
       </c>
       <c r="O22" t="n">
         <v>485.006411183165</v>
@@ -36299,7 +36299,7 @@
         <v>401.3391416378323</v>
       </c>
       <c r="Q22" t="n">
-        <v>202.9212659517818</v>
+        <v>50.01874334784338</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>42.0601255809552</v>
+        <v>42.06012558095524</v>
       </c>
       <c r="J23" t="n">
-        <v>139.23345150118</v>
+        <v>534.9195310038328</v>
       </c>
       <c r="K23" t="n">
-        <v>217.0031433876724</v>
+        <v>217.0031433876725</v>
       </c>
       <c r="L23" t="n">
-        <v>275.2686954786178</v>
+        <v>275.2686954786179</v>
       </c>
       <c r="M23" t="n">
-        <v>311.4877285664816</v>
+        <v>311.4877285664818</v>
       </c>
       <c r="N23" t="n">
-        <v>317.2852426969607</v>
+        <v>317.2852426969608</v>
       </c>
       <c r="O23" t="n">
-        <v>297.4145888894177</v>
+        <v>297.4145888894179</v>
       </c>
       <c r="P23" t="n">
-        <v>454.5984789882618</v>
+        <v>248.1734276171332</v>
       </c>
       <c r="Q23" t="n">
-        <v>675.2778440992005</v>
+        <v>486.0168159676748</v>
       </c>
       <c r="R23" t="n">
-        <v>243.5665220198733</v>
+        <v>243.5665220198734</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,34 +36433,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>20.43330505208248</v>
+        <v>44.12755337977123</v>
       </c>
       <c r="J24" t="n">
-        <v>79.8377018588525</v>
+        <v>214.7158714301863</v>
       </c>
       <c r="K24" t="n">
-        <v>149.2837922911597</v>
+        <v>149.2837922911598</v>
       </c>
       <c r="L24" t="n">
-        <v>208.3339289115148</v>
+        <v>208.3339289115149</v>
       </c>
       <c r="M24" t="n">
-        <v>246.293132278284</v>
+        <v>246.2931322782842</v>
       </c>
       <c r="N24" t="n">
-        <v>255.1768339739346</v>
+        <v>255.1768339739347</v>
       </c>
       <c r="O24" t="n">
-        <v>494.8828868967656</v>
+        <v>229.7897616392515</v>
       </c>
       <c r="P24" t="n">
-        <v>181.2531855058805</v>
+        <v>181.2531855058806</v>
       </c>
       <c r="Q24" t="n">
-        <v>112.9691469604238</v>
+        <v>112.9691469604239</v>
       </c>
       <c r="R24" t="n">
-        <v>42.3385676313692</v>
+        <v>148.85927498986</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>121.0904079163418</v>
+        <v>121.0904079163419</v>
       </c>
       <c r="K25" t="n">
-        <v>332.3742814427152</v>
+        <v>219.4819269776937</v>
       </c>
       <c r="L25" t="n">
         <v>490.7912967507201</v>
@@ -36533,7 +36533,7 @@
         <v>485.006411183165</v>
       </c>
       <c r="P25" t="n">
-        <v>288.446787172811</v>
+        <v>401.3391416378323</v>
       </c>
       <c r="Q25" t="n">
         <v>202.9212659517818</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>42.0601255809552</v>
+        <v>42.06012558095524</v>
       </c>
       <c r="J26" t="n">
-        <v>534.9195310038327</v>
+        <v>499.4349253750869</v>
       </c>
       <c r="K26" t="n">
-        <v>217.0031433876724</v>
+        <v>217.0031433876725</v>
       </c>
       <c r="L26" t="n">
-        <v>275.2686954786178</v>
+        <v>275.2686954786179</v>
       </c>
       <c r="M26" t="n">
-        <v>311.4877285664816</v>
+        <v>311.4877285664818</v>
       </c>
       <c r="N26" t="n">
-        <v>317.2852426969607</v>
+        <v>317.2852426969608</v>
       </c>
       <c r="O26" t="n">
-        <v>297.4145888894177</v>
+        <v>297.4145888894179</v>
       </c>
       <c r="P26" t="n">
-        <v>248.173427617133</v>
+        <v>248.1734276171332</v>
       </c>
       <c r="Q26" t="n">
-        <v>486.0168159676767</v>
+        <v>675.2778440992006</v>
       </c>
       <c r="R26" t="n">
-        <v>243.5665220198733</v>
+        <v>89.79009951709449</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>20.43330505208248</v>
+        <v>44.12755337977123</v>
       </c>
       <c r="J27" t="n">
-        <v>79.8377018588525</v>
+        <v>214.7158714301863</v>
       </c>
       <c r="K27" t="n">
-        <v>149.2837922911597</v>
+        <v>149.2837922911598</v>
       </c>
       <c r="L27" t="n">
-        <v>208.3339289115148</v>
+        <v>208.3339289115149</v>
       </c>
       <c r="M27" t="n">
-        <v>246.293132278284</v>
+        <v>246.2931322782842</v>
       </c>
       <c r="N27" t="n">
-        <v>255.1768339739346</v>
+        <v>255.1768339739347</v>
       </c>
       <c r="O27" t="n">
-        <v>229.7897616392514</v>
+        <v>229.7897616392515</v>
       </c>
       <c r="P27" t="n">
-        <v>181.2531855058805</v>
+        <v>181.2531855058806</v>
       </c>
       <c r="Q27" t="n">
-        <v>378.0622722179379</v>
+        <v>112.9691469604239</v>
       </c>
       <c r="R27" t="n">
-        <v>42.3385676313692</v>
+        <v>148.85927498986</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>121.0904079163418</v>
+        <v>121.0904079163419</v>
       </c>
       <c r="K28" t="n">
-        <v>332.3742814427152</v>
+        <v>332.3742814427153</v>
       </c>
       <c r="L28" t="n">
         <v>490.7912967507201</v>
@@ -36770,10 +36770,10 @@
         <v>485.006411183165</v>
       </c>
       <c r="P28" t="n">
-        <v>288.446787172811</v>
+        <v>401.3391416378323</v>
       </c>
       <c r="Q28" t="n">
-        <v>202.9212659517818</v>
+        <v>90.02891148676062</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>42.0601255809552</v>
+        <v>42.06012558095524</v>
       </c>
       <c r="J29" t="n">
-        <v>139.23345150118</v>
+        <v>139.2334515011801</v>
       </c>
       <c r="K29" t="n">
-        <v>217.0031433876724</v>
+        <v>217.0031433876725</v>
       </c>
       <c r="L29" t="n">
-        <v>275.2686954786178</v>
+        <v>750.8836385195242</v>
       </c>
       <c r="M29" t="n">
-        <v>311.4877285664816</v>
+        <v>311.4877285664818</v>
       </c>
       <c r="N29" t="n">
-        <v>317.2852426969607</v>
+        <v>317.2852426969608</v>
       </c>
       <c r="O29" t="n">
-        <v>297.4145888894177</v>
+        <v>297.4145888894179</v>
       </c>
       <c r="P29" t="n">
-        <v>454.5984789882618</v>
+        <v>248.1734276171332</v>
       </c>
       <c r="Q29" t="n">
-        <v>675.2778440992005</v>
+        <v>406.0879524294214</v>
       </c>
       <c r="R29" t="n">
-        <v>243.5665220198733</v>
+        <v>243.5665220198734</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>20.43330505208248</v>
+        <v>44.12755337977123</v>
       </c>
       <c r="J30" t="n">
-        <v>344.9308271163667</v>
+        <v>214.7158714301863</v>
       </c>
       <c r="K30" t="n">
-        <v>149.2837922911597</v>
+        <v>149.2837922911598</v>
       </c>
       <c r="L30" t="n">
-        <v>208.3339289115148</v>
+        <v>208.3339289115149</v>
       </c>
       <c r="M30" t="n">
-        <v>246.293132278284</v>
+        <v>246.2931322782842</v>
       </c>
       <c r="N30" t="n">
-        <v>255.1768339739346</v>
+        <v>255.1768339739347</v>
       </c>
       <c r="O30" t="n">
-        <v>229.7897616392514</v>
+        <v>229.7897616392515</v>
       </c>
       <c r="P30" t="n">
-        <v>181.2531855058805</v>
+        <v>181.2531855058806</v>
       </c>
       <c r="Q30" t="n">
-        <v>112.9691469604238</v>
+        <v>112.9691469604239</v>
       </c>
       <c r="R30" t="n">
-        <v>42.3385676313692</v>
+        <v>148.85927498986</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,16 +36989,16 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>121.0904079163418</v>
+        <v>121.0904079163419</v>
       </c>
       <c r="K31" t="n">
-        <v>332.3742814427152</v>
+        <v>332.3742814427153</v>
       </c>
       <c r="L31" t="n">
         <v>490.7912967507201</v>
       </c>
       <c r="M31" t="n">
-        <v>534.8601405048234</v>
+        <v>421.9677860398018</v>
       </c>
       <c r="N31" t="n">
         <v>517.7052302862629</v>
@@ -37007,7 +37007,7 @@
         <v>485.006411183165</v>
       </c>
       <c r="P31" t="n">
-        <v>288.446787172811</v>
+        <v>401.3391416378323</v>
       </c>
       <c r="Q31" t="n">
         <v>202.9212659517818</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>42.0601255809552</v>
+        <v>42.06012558095524</v>
       </c>
       <c r="J32" t="n">
-        <v>534.9195310038327</v>
+        <v>534.9195310038328</v>
       </c>
       <c r="K32" t="n">
-        <v>217.0031433876724</v>
+        <v>217.0031433876725</v>
       </c>
       <c r="L32" t="n">
-        <v>275.2686954786178</v>
+        <v>275.2686954786179</v>
       </c>
       <c r="M32" t="n">
-        <v>311.4877285664816</v>
+        <v>311.4877285664818</v>
       </c>
       <c r="N32" t="n">
-        <v>317.2852426969607</v>
+        <v>317.2852426969608</v>
       </c>
       <c r="O32" t="n">
-        <v>297.4145888894177</v>
+        <v>297.4145888894179</v>
       </c>
       <c r="P32" t="n">
-        <v>248.173427617133</v>
+        <v>248.1734276171332</v>
       </c>
       <c r="Q32" t="n">
-        <v>486.0168159676767</v>
+        <v>639.7932384704538</v>
       </c>
       <c r="R32" t="n">
-        <v>243.5665220198733</v>
+        <v>89.79009951709449</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,34 +37144,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>20.43330505208248</v>
+        <v>44.12755337977123</v>
       </c>
       <c r="J33" t="n">
-        <v>79.8377018588525</v>
+        <v>79.83770185885254</v>
       </c>
       <c r="K33" t="n">
-        <v>149.2837922911597</v>
+        <v>149.2837922911598</v>
       </c>
       <c r="L33" t="n">
-        <v>208.3339289115148</v>
+        <v>208.3339289115149</v>
       </c>
       <c r="M33" t="n">
-        <v>246.293132278284</v>
+        <v>246.2931322782842</v>
       </c>
       <c r="N33" t="n">
-        <v>255.1768339739346</v>
+        <v>255.1768339739347</v>
       </c>
       <c r="O33" t="n">
-        <v>229.7897616392514</v>
+        <v>229.7897616392515</v>
       </c>
       <c r="P33" t="n">
-        <v>181.2531855058805</v>
+        <v>181.2531855058806</v>
       </c>
       <c r="Q33" t="n">
-        <v>378.0622722179379</v>
+        <v>247.8473165317577</v>
       </c>
       <c r="R33" t="n">
-        <v>42.3385676313692</v>
+        <v>148.85927498986</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,13 +37226,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>121.0904079163418</v>
+        <v>121.0904079163419</v>
       </c>
       <c r="K34" t="n">
-        <v>332.3742814427152</v>
+        <v>332.3742814427153</v>
       </c>
       <c r="L34" t="n">
-        <v>377.8989422856989</v>
+        <v>490.7912967507201</v>
       </c>
       <c r="M34" t="n">
         <v>534.8601405048234</v>
@@ -37247,7 +37247,7 @@
         <v>401.3391416378323</v>
       </c>
       <c r="Q34" t="n">
-        <v>202.9212659517818</v>
+        <v>90.02891148676062</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>42.0601255809552</v>
+        <v>42.06012558095524</v>
       </c>
       <c r="J35" t="n">
-        <v>139.2334515011803</v>
+        <v>139.2334515011801</v>
       </c>
       <c r="K35" t="n">
-        <v>217.0031433876724</v>
+        <v>217.0031433876725</v>
       </c>
       <c r="L35" t="n">
-        <v>275.2686954786178</v>
+        <v>275.2686954786179</v>
       </c>
       <c r="M35" t="n">
-        <v>311.4877285664816</v>
+        <v>311.4877285664818</v>
       </c>
       <c r="N35" t="n">
-        <v>317.2852426969607</v>
+        <v>317.2852426969608</v>
       </c>
       <c r="O35" t="n">
-        <v>297.4145888894177</v>
+        <v>297.4145888894179</v>
       </c>
       <c r="P35" t="n">
-        <v>248.173427617133</v>
+        <v>248.1734276171332</v>
       </c>
       <c r="Q35" t="n">
-        <v>178.4607659550236</v>
+        <v>178.4607659550237</v>
       </c>
       <c r="R35" t="n">
-        <v>89.79009951709443</v>
+        <v>89.79009951709496</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>20.43330505208248</v>
+        <v>44.12755337977123</v>
       </c>
       <c r="J36" t="n">
-        <v>344.9308271163669</v>
+        <v>214.7158714301864</v>
       </c>
       <c r="K36" t="n">
-        <v>149.2837922911597</v>
+        <v>149.2837922911598</v>
       </c>
       <c r="L36" t="n">
-        <v>208.3339289115148</v>
+        <v>208.3339289115149</v>
       </c>
       <c r="M36" t="n">
-        <v>246.293132278284</v>
+        <v>246.2931322782842</v>
       </c>
       <c r="N36" t="n">
-        <v>255.1768339739346</v>
+        <v>255.1768339739347</v>
       </c>
       <c r="O36" t="n">
-        <v>229.7897616392514</v>
+        <v>229.7897616392515</v>
       </c>
       <c r="P36" t="n">
-        <v>181.2531855058805</v>
+        <v>181.2531855058806</v>
       </c>
       <c r="Q36" t="n">
-        <v>112.9691469604238</v>
+        <v>112.9691469604239</v>
       </c>
       <c r="R36" t="n">
-        <v>42.3385676313692</v>
+        <v>148.85927498986</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>42.38160322116926</v>
+        <v>42.38160322116929</v>
       </c>
       <c r="K37" t="n">
-        <v>82.59386819622831</v>
+        <v>82.59386819622837</v>
       </c>
       <c r="L37" t="n">
-        <v>110.6004951434827</v>
+        <v>384.2070419155711</v>
       </c>
       <c r="M37" t="n">
-        <v>426.5317761745534</v>
+        <v>534.4427286986308</v>
       </c>
       <c r="N37" t="n">
         <v>517.7052302862629</v>
       </c>
       <c r="O37" t="n">
-        <v>485.006411183165</v>
+        <v>103.4889118870001</v>
       </c>
       <c r="P37" t="n">
         <v>401.3391416378323</v>
       </c>
       <c r="Q37" t="n">
-        <v>50.01874334784334</v>
+        <v>50.01874334784338</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>42.0601255809552</v>
+        <v>42.06012558095524</v>
       </c>
       <c r="J38" t="n">
-        <v>139.23345150118</v>
+        <v>139.2334515011801</v>
       </c>
       <c r="K38" t="n">
-        <v>217.0031433876724</v>
+        <v>217.0031433876725</v>
       </c>
       <c r="L38" t="n">
-        <v>275.2686954786178</v>
+        <v>275.2686954786179</v>
       </c>
       <c r="M38" t="n">
-        <v>311.4877285664816</v>
+        <v>311.4877285664818</v>
       </c>
       <c r="N38" t="n">
-        <v>317.2852426969607</v>
+        <v>317.2852426969608</v>
       </c>
       <c r="O38" t="n">
-        <v>297.4145888894177</v>
+        <v>297.4145888894179</v>
       </c>
       <c r="P38" t="n">
-        <v>248.173427617133</v>
+        <v>248.1734276171332</v>
       </c>
       <c r="Q38" t="n">
-        <v>178.4607659550236</v>
+        <v>178.4607659550237</v>
       </c>
       <c r="R38" t="n">
-        <v>89.79009951709443</v>
+        <v>89.79009951709449</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>20.43330505208248</v>
+        <v>20.4333050520825</v>
       </c>
       <c r="J39" t="n">
-        <v>79.8377018588525</v>
+        <v>344.9308271163659</v>
       </c>
       <c r="K39" t="n">
-        <v>149.2837922911597</v>
+        <v>149.2837922911598</v>
       </c>
       <c r="L39" t="n">
-        <v>208.3339289115148</v>
+        <v>208.3339289115149</v>
       </c>
       <c r="M39" t="n">
-        <v>246.293132278284</v>
+        <v>246.2931322782842</v>
       </c>
       <c r="N39" t="n">
-        <v>255.1768339739346</v>
+        <v>255.1768339739347</v>
       </c>
       <c r="O39" t="n">
-        <v>229.7897616392514</v>
+        <v>229.7897616392515</v>
       </c>
       <c r="P39" t="n">
-        <v>181.2531855058805</v>
+        <v>181.2531855058806</v>
       </c>
       <c r="Q39" t="n">
-        <v>378.0622722179381</v>
+        <v>112.9691469604239</v>
       </c>
       <c r="R39" t="n">
-        <v>42.3385676313692</v>
+        <v>42.33856763136923</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,16 +37700,16 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>42.38160322116926</v>
+        <v>42.38160322116929</v>
       </c>
       <c r="K40" t="n">
-        <v>82.59386819622831</v>
+        <v>82.59386819622837</v>
       </c>
       <c r="L40" t="n">
-        <v>490.7912967507201</v>
+        <v>318.6049007742614</v>
       </c>
       <c r="M40" t="n">
-        <v>362.2563327221723</v>
+        <v>534.4427286986306</v>
       </c>
       <c r="N40" t="n">
         <v>517.7052302862629</v>
@@ -37718,10 +37718,10 @@
         <v>485.006411183165</v>
       </c>
       <c r="P40" t="n">
-        <v>85.42378348297609</v>
+        <v>85.42378348297615</v>
       </c>
       <c r="Q40" t="n">
-        <v>50.01874334784334</v>
+        <v>50.01874334784338</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37776,19 +37776,19 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>42.0601255809552</v>
+        <v>42.06012558095522</v>
       </c>
       <c r="J41" t="n">
-        <v>139.2334515011798</v>
+        <v>139.2334515011801</v>
       </c>
       <c r="K41" t="n">
-        <v>217.0031433876724</v>
+        <v>217.0031433876727</v>
       </c>
       <c r="L41" t="n">
         <v>275.2686954786178</v>
       </c>
       <c r="M41" t="n">
-        <v>311.4877285664816</v>
+        <v>311.4877285664817</v>
       </c>
       <c r="N41" t="n">
         <v>317.2852426969607</v>
@@ -37797,13 +37797,13 @@
         <v>297.4145888894177</v>
       </c>
       <c r="P41" t="n">
-        <v>248.173427617133</v>
+        <v>248.1734276171331</v>
       </c>
       <c r="Q41" t="n">
         <v>178.4607659550236</v>
       </c>
       <c r="R41" t="n">
-        <v>89.79009951709443</v>
+        <v>89.79009951709446</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,10 +37858,10 @@
         <v>44.12755337977121</v>
       </c>
       <c r="J42" t="n">
-        <v>214.7158714301874</v>
+        <v>214.7158714301872</v>
       </c>
       <c r="K42" t="n">
-        <v>149.2837922911597</v>
+        <v>149.2837922911598</v>
       </c>
       <c r="L42" t="n">
         <v>208.3339289115148</v>
@@ -37879,7 +37879,7 @@
         <v>181.2531855058805</v>
       </c>
       <c r="Q42" t="n">
-        <v>112.9691469604238</v>
+        <v>112.9691469604239</v>
       </c>
       <c r="R42" t="n">
         <v>148.8592749898599</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>121.0904079163418</v>
+        <v>42.38160322116926</v>
       </c>
       <c r="K43" t="n">
-        <v>332.3742814427152</v>
+        <v>82.59386819622833</v>
       </c>
       <c r="L43" t="n">
-        <v>304.8687587860126</v>
+        <v>110.6004951434827</v>
       </c>
       <c r="M43" t="n">
-        <v>534.4427286986304</v>
+        <v>534.4427286986306</v>
       </c>
       <c r="N43" t="n">
-        <v>115.6517728702223</v>
+        <v>517.7052302862629</v>
       </c>
       <c r="O43" t="n">
-        <v>103.488911887</v>
+        <v>485.006411183165</v>
       </c>
       <c r="P43" t="n">
-        <v>401.3391416378323</v>
+        <v>293.4281891137553</v>
       </c>
       <c r="Q43" t="n">
-        <v>202.9212659517818</v>
+        <v>50.01874334784335</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38013,10 +38013,10 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>42.0601255809552</v>
+        <v>42.06012558095522</v>
       </c>
       <c r="J44" t="n">
-        <v>139.23345150118</v>
+        <v>139.2334515011801</v>
       </c>
       <c r="K44" t="n">
         <v>217.0031433876724</v>
@@ -38025,7 +38025,7 @@
         <v>275.2686954786178</v>
       </c>
       <c r="M44" t="n">
-        <v>311.4877285664816</v>
+        <v>311.4877285664817</v>
       </c>
       <c r="N44" t="n">
         <v>317.2852426969607</v>
@@ -38034,13 +38034,13 @@
         <v>297.4145888894177</v>
       </c>
       <c r="P44" t="n">
-        <v>248.173427617133</v>
+        <v>248.1734276171331</v>
       </c>
       <c r="Q44" t="n">
         <v>178.4607659550236</v>
       </c>
       <c r="R44" t="n">
-        <v>89.79009951709443</v>
+        <v>89.79009951709446</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,16 +38095,16 @@
         <v>44.12755337977121</v>
       </c>
       <c r="J45" t="n">
-        <v>79.8377018588525</v>
+        <v>214.7158714301873</v>
       </c>
       <c r="K45" t="n">
-        <v>149.2837922911597</v>
+        <v>149.2837922911598</v>
       </c>
       <c r="L45" t="n">
         <v>208.3339289115148</v>
       </c>
       <c r="M45" t="n">
-        <v>487.6920092081097</v>
+        <v>246.293132278284</v>
       </c>
       <c r="N45" t="n">
         <v>255.1768339739346</v>
@@ -38116,10 +38116,10 @@
         <v>181.2531855058805</v>
       </c>
       <c r="Q45" t="n">
-        <v>112.9691469604238</v>
+        <v>112.9691469604239</v>
       </c>
       <c r="R45" t="n">
-        <v>42.3385676313692</v>
+        <v>148.8592749898599</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38177,13 +38177,13 @@
         <v>42.38160322116926</v>
       </c>
       <c r="K46" t="n">
-        <v>82.59386819622831</v>
+        <v>82.59386819622833</v>
       </c>
       <c r="L46" t="n">
-        <v>419.9847373413154</v>
+        <v>318.6049007742618</v>
       </c>
       <c r="M46" t="n">
-        <v>117.1475339767206</v>
+        <v>534.4427286986305</v>
       </c>
       <c r="N46" t="n">
         <v>517.7052302862629</v>
@@ -38192,10 +38192,10 @@
         <v>485.006411183165</v>
       </c>
       <c r="P46" t="n">
-        <v>401.3391416378323</v>
+        <v>85.42378348297611</v>
       </c>
       <c r="Q46" t="n">
-        <v>50.01874334784334</v>
+        <v>50.01874334784335</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
